--- a/metadata/RMNCAH/RMNCAH_DASHBOARD_V1_DHIS2.34/reference.xlsx
+++ b/metadata/RMNCAH/RMNCAH_DASHBOARD_V1_DHIS2.34/reference.xlsx
@@ -424,13 +424,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="49.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -462,7 +462,7 @@
         <v>Version</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>V1.0</v>
+        <v>1.1.0</v>
       </c>
     </row>
     <row r="5">
@@ -470,23 +470,31 @@
         <v>DHIS2 version</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>DHIS2.34</v>
+        <v>2.34.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>Created</v>
+        <v>DHIS2 build</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2020-08-05T19:42</v>
+        <v>aff07fb</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>Identifier</v>
+        <v>Last updated</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>RMNCAH_DASHBOARD_V1.0_DHIS2.34_2020-08-05T19:42</v>
+        <v>20210625T065237</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <v>RMNCAH_DASHBOARD_V1.1.0_2.34.4-en</v>
       </c>
     </row>
   </sheetData>
@@ -502,7 +510,7 @@
   <cols>
     <col min="1" max="1" width="106.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -522,170 +530,170 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v xml:space="preserve">RMNCAH - Antenatal care interventions - yearly </v>
+        <v>RMNCAH - FP clients accepting contraceptives for first time - quarterly</v>
       </c>
       <c r="B2" s="4" t="str">
         <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2020-04-15T12:52:05.850</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>s1HTt1RsC7N</v>
+        <v>a74ivhos1HV</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>RMNCAH - Child mortality by cause 0-4 years - this year</v>
+        <v>RMNCAH - Delivery and newborn care interventions by year</v>
       </c>
       <c r="B3" s="5" t="str">
         <v/>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2020-04-28T20:14:35.405</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>pgB0KOsHovg</v>
+        <v>aLMrowvb44Q</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>RMNCAH - Child mortality by cause 5-9 years - this year</v>
+        <v>RMNCAH - FP method for post-partum patients at discharge after facility delivery - by orgunit 12-monthly</v>
       </c>
       <c r="B4" s="4" t="str">
         <v/>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2020-04-28T20:12:38.440</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>RJCFvxlOA7t</v>
+        <v>gC7bvSoYIWz</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>RMNCAH - Children diagnosed with pneumonia by age and org unit, last 12 months</v>
+        <v>RMNCAH - Continuum of Care - yearly</v>
       </c>
       <c r="B5" s="5" t="str">
         <v/>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2020-04-13T13:43:34.498</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>zcQnSrwconF</v>
+        <v>gJeV6BtrYoj</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>RMNCAH - Continuum of Care - yearly</v>
+        <v>RMNCAH - Number of stillbirths by type and year</v>
       </c>
       <c r="B6" s="4" t="str">
         <v/>
       </c>
       <c r="C6" s="4" t="str">
-        <v>2020-04-15T12:43:13.124</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>gJeV6BtrYoj</v>
+        <v>m9IFzMHmRF9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>RMNCAH - Delivery and newborn care interventions - quarterly</v>
+        <v>RMNCAH - Diarrhea treatment for children 0-9 by type, quarterly</v>
       </c>
       <c r="B7" s="5" t="str">
         <v/>
       </c>
       <c r="C7" s="5" t="str">
-        <v>2020-04-13T11:54:19.020</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>QDsX9SohaCB</v>
+        <v>O2EwlCUHQ25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>RMNCAH - Delivery and newborn care interventions by year</v>
+        <v>RMNCAH - Child mortality by cause 0-4 years - this year</v>
       </c>
       <c r="B8" s="4" t="str">
         <v/>
       </c>
       <c r="C8" s="4" t="str">
-        <v>2020-04-13T11:58:20.790</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>aLMrowvb44Q</v>
+        <v>pgB0KOsHovg</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>RMNCAH - Diarrhea treatment for children 0-9 by type, quarterly</v>
+        <v>RMNCAH - Pneumonia treatment in children 0-9, by quarter and org unit</v>
       </c>
       <c r="B9" s="5" t="str">
         <v/>
       </c>
       <c r="C9" s="5" t="str">
-        <v>2020-04-27T12:25:37.064</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>O2EwlCUHQ25</v>
+        <v>pXbMZzknPFp</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>RMNCAH - First antenatal care during first trimester by age and over time</v>
+        <v>RMNCAH - Newborn mortality by cause</v>
       </c>
       <c r="B10" s="4" t="str">
         <v/>
       </c>
       <c r="C10" s="4" t="str">
-        <v>2020-05-19T05:28:22.771</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>YeAJFrQQU4W</v>
+        <v>py5vOPaNck9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>RMNCAH - FP clients accepting contraceptives for first time - quarterly</v>
+        <v>RMNCAH - Delivery and newborn care interventions - quarterly</v>
       </c>
       <c r="B11" s="5" t="str">
         <v/>
       </c>
       <c r="C11" s="5" t="str">
-        <v>2020-04-15T12:59:08.567</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>a74ivhos1HV</v>
+        <v>QDsX9SohaCB</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>RMNCAH - FP clients accepting contraceptives for first time by age and sex</v>
+        <v>RMNCAH - Child mortality by cause 5-9 years - this year</v>
       </c>
       <c r="B12" s="4" t="str">
         <v/>
       </c>
       <c r="C12" s="4" t="str">
-        <v>2020-04-13T11:42:34.115</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>u2K7F4cqtdf</v>
+        <v>RJCFvxlOA7t</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>RMNCAH - FP method for post-partum patients at discharge after facility delivery - by orgunit 12-monthly</v>
+        <v xml:space="preserve">RMNCAH - Antenatal care interventions - yearly </v>
       </c>
       <c r="B13" s="5" t="str">
         <v/>
       </c>
       <c r="C13" s="5" t="str">
-        <v>2020-05-18T15:51:28.221</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>gC7bvSoYIWz</v>
+        <v>s1HTt1RsC7N</v>
       </c>
     </row>
     <row r="14">
@@ -696,7 +704,7 @@
         <v/>
       </c>
       <c r="C14" s="4" t="str">
-        <v>2020-04-23T22:48:26.951</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D14" s="4" t="str">
         <v>SXjpUVdtS8c</v>
@@ -704,44 +712,44 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>RMNCAH - Newborn mortality by cause</v>
+        <v>RMNCAH - FP clients accepting contraceptives for first time by age and sex</v>
       </c>
       <c r="B15" s="5" t="str">
         <v/>
       </c>
       <c r="C15" s="5" t="str">
-        <v>2020-04-23T22:23:36.781</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>py5vOPaNck9</v>
+        <v>u2K7F4cqtdf</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>RMNCAH - Number of stillbirths by type and year</v>
+        <v>RMNCAH - First antenatal care during first trimester by age and over time</v>
       </c>
       <c r="B16" s="4" t="str">
         <v/>
       </c>
       <c r="C16" s="4" t="str">
-        <v>2020-04-15T12:44:26.672</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>m9IFzMHmRF9</v>
+        <v>YeAJFrQQU4W</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>RMNCAH - Pneumonia treatment in children 0-9, by quarter and org unit</v>
+        <v>RMNCAH - Children diagnosed with pneumonia by age and org unit, last 12 months</v>
       </c>
       <c r="B17" s="5" t="str">
         <v/>
       </c>
       <c r="C17" s="5" t="str">
-        <v>2020-04-15T12:54:43.389</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>pXbMZzknPFp</v>
+        <v>zcQnSrwconF</v>
       </c>
     </row>
   </sheetData>
@@ -776,7 +784,7 @@
         <v>RMNCAH access</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2020-04-24</v>
+        <v>2021-05-20</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>DKERleFxdOs</v>
@@ -787,7 +795,7 @@
         <v>RMNCAH admin</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2020-04-24</v>
+        <v>2021-05-20</v>
       </c>
       <c r="C3" s="5" t="str">
         <v>Kqg4vo1AOKb</v>
@@ -860,13 +868,13 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Age in years  (0-4, 5-9, unknown)</v>
+        <v>Sex (Male/Female)</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2019-04-24</v>
+        <v>2021-02-08</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>tuz13lFHjuM</v>
+        <v>CMrvZp5rmoC</v>
       </c>
     </row>
     <row r="3">
@@ -874,7 +882,7 @@
         <v>Age in years  (10-14, 15-19, 20+, unknown)</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2019-04-24</v>
+        <v>2021-02-08</v>
       </c>
       <c r="C3" s="5" t="str">
         <v>EQAlIqdqcI1</v>
@@ -882,13 +890,13 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>Sex (Male/Female)</v>
+        <v>Age in years  (0-4, 5-9, unknown)</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2020-03-18</v>
+        <v>2021-02-08</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>CMrvZp5rmoC</v>
+        <v>tuz13lFHjuM</v>
       </c>
     </row>
   </sheetData>
@@ -902,8 +910,8 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
@@ -924,111 +932,111 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>[CONFIG] 0-4 years</v>
+        <v>[CONFIG] Female</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>0-4 years</v>
+        <v>Female</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2019-06-29</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>yuathFHLjNe</v>
+        <v>bqoVhX2RfG4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>[CONFIG] 10-14 years</v>
+        <v>[CONFIG] Male</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>10-14 y</v>
+        <v>Male</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2019-04-24</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>RoYZKp6iDnH</v>
+        <v>EVYKU2fIc6G</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>[CONFIG] 15-19 years</v>
+        <v>[CONFIG] 5-9 years</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>15-19 y</v>
+        <v>5-9 y</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2019-04-24</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>qiaJA9sMzj2</v>
+        <v>Mcv3dvoK2iM</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>[CONFIG] 20+ years</v>
+        <v>[CONFIG] 15-19 years</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>20+ y</v>
+        <v>15-19 y</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2019-04-24</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>TYpLRwKGE2K</v>
+        <v>qiaJA9sMzj2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>[CONFIG] 5-9 years</v>
+        <v>[CONFIG] 10-14 years</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>5-9 y</v>
+        <v>10-14 y</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>2019-04-24</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>Mcv3dvoK2iM</v>
+        <v>RoYZKp6iDnH</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>[CONFIG] Female</v>
+        <v>[CONFIG] 20+ years</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>Female</v>
+        <v>20+ y</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>2020-03-18</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>bqoVhX2RfG4</v>
+        <v>TYpLRwKGE2K</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>[CONFIG] Male</v>
+        <v>[CONFIG] 0-4 years</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>Male</v>
+        <v>0-4 y</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>2020-03-18</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>EVYKU2fIc6G</v>
+        <v>yuathFHLjNe</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>[CONFIG] Other/unknown age</v>
+        <v>[CONFIG] Unknown age</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>Other/unknown age</v>
+        <v>Unknown age</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>2019-06-29</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D9" s="5" t="str">
         <v>YXE2HxNf3YB</v>
@@ -1046,7 +1054,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="44.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1059,26 +1067,26 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Age in years  (0-4, 5-9, unknown)</v>
+        <v>Sex (Male/Female)</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>[CONFIG] 0-4 years</v>
+        <v>[CONFIG] Female</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Age in years  (0-4, 5-9, unknown)</v>
+        <v>Sex (Male/Female)</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>[CONFIG] 5-9 years</v>
+        <v>[CONFIG] Male</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>Age in years  (0-4, 5-9, unknown)</v>
+        <v>Age in years  (10-14, 15-19, 20+, unknown)</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>[CONFIG] Other/unknown age</v>
+        <v>[CONFIG] 10-14 years</v>
       </c>
     </row>
     <row r="5">
@@ -1086,7 +1094,7 @@
         <v>Age in years  (10-14, 15-19, 20+, unknown)</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>[CONFIG] 10-14 years</v>
+        <v>[CONFIG] 15-19 years</v>
       </c>
     </row>
     <row r="6">
@@ -1094,7 +1102,7 @@
         <v>Age in years  (10-14, 15-19, 20+, unknown)</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>[CONFIG] 15-19 years</v>
+        <v>[CONFIG] 20+ years</v>
       </c>
     </row>
     <row r="7">
@@ -1102,31 +1110,31 @@
         <v>Age in years  (10-14, 15-19, 20+, unknown)</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>[CONFIG] 20+ years</v>
+        <v>[CONFIG] Unknown age</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>Age in years  (10-14, 15-19, 20+, unknown)</v>
+        <v>Age in years  (0-4, 5-9, unknown)</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>[CONFIG] Other/unknown age</v>
+        <v>[CONFIG] 0-4 years</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>Sex (Male/Female)</v>
+        <v>Age in years  (0-4, 5-9, unknown)</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>[CONFIG] Female</v>
+        <v>[CONFIG] 5-9 years</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>Sex (Male/Female)</v>
+        <v>Age in years  (0-4, 5-9, unknown)</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>[CONFIG] Male</v>
+        <v>[CONFIG] Unknown age</v>
       </c>
     </row>
   </sheetData>
@@ -1162,86 +1170,86 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>RMNCAH</v>
+        <v>RMNCAH - Mortality</v>
       </c>
       <c r="B2" s="4" t="str">
         <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2020-04-27</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>uDy8xg2ofrw</v>
+        <v>lO4bfTs7T8G</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>RMNCAH - Childhood and Young Adolescence</v>
+        <v>RMNCAH - Postnatal</v>
       </c>
       <c r="B3" s="5" t="str">
         <v/>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2020-04-27</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>Qc4lDXPFGh7</v>
+        <v>NBoBsBLsTOW</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>RMNCAH - Maternal and Newborn Health</v>
+        <v>RMNCAH - Childhood and Young Adolescence</v>
       </c>
       <c r="B4" s="4" t="str">
         <v/>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2020-04-27</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>VQy2Db1ToNM</v>
+        <v>Qc4lDXPFGh7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>RMNCAH - Mortality</v>
+        <v>RMNCAH - Sexual and reproductive health</v>
       </c>
       <c r="B5" s="5" t="str">
         <v/>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2020-04-27</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>lO4bfTs7T8G</v>
+        <v>RRcDhY8kEtf</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>RMNCAH - Postnatal</v>
+        <v>RMNCAH</v>
       </c>
       <c r="B6" s="4" t="str">
         <v/>
       </c>
       <c r="C6" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-06-23</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>NBoBsBLsTOW</v>
+        <v>uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>RMNCAH - Sexual and reproductive health</v>
+        <v>RMNCAH - Maternal and Newborn Health</v>
       </c>
       <c r="B7" s="5" t="str">
         <v/>
       </c>
       <c r="C7" s="5" t="str">
-        <v>2020-04-24</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>RRcDhY8kEtf</v>
+        <v>VQy2Db1ToNM</v>
       </c>
     </row>
   </sheetData>
@@ -1257,7 +1265,7 @@
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="102.7109375" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" customWidth="1"/>
     <col min="4" max="4" width="42.7109375" customWidth="1"/>
     <col min="5" max="5" width="577.7109375" customWidth="1"/>
     <col min="6" max="6" width="96.7109375" customWidth="1"/>
@@ -1301,54 +1309,54 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>fuIpFYTrp5m</v>
+        <v>aCJadIVZ815</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>[CONFIG] MAL - Percentage of cases (confirmed + presumed) treated with ACTs 0-4y</v>
+        <v>[CONFIG] RMNCAH - Death neonatal pre-term birth complications</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>Cases treated with ACTs 0-4 (%)</v>
+        <v>Death neonatal pre-term birth</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>MAL_PER_OF_CASES_TREAT_ACTS_0-4</v>
+        <v>RMNCAH_NDLBWPR</v>
       </c>
       <c r="E2" s="4" t="str">
-        <v>(Number of full ACT treatment courses distributed to children under 5/ total number of malaria cases (confirmed+presumed))*100</v>
+        <v>Number of Neonatal deaths due to pre-term birth complications</v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>Treatment with ACT 0-4y</v>
+        <v>Death neonatal pre-term birth complications</v>
       </c>
       <c r="G2" s="4" t="str">
-        <v>Confirmed malaria cases (confirmed + presumed) 0-4y</v>
+        <v>1</v>
       </c>
       <c r="H2" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I2" s="4" t="str">
-        <v>2020-04-24</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J2" s="4" t="str">
-        <v>uDy8xg2ofrw, Qc4lDXPFGh7</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Ec4z30wDGVH</v>
+        <v>Aii5EOk1xEW</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v xml:space="preserve">[CONFIG] RMNCAH - ANC 1st visit </v>
+        <v>[CONFIG] RMNCAH - Birth still macerated</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v xml:space="preserve">ANC 1st visit </v>
+        <v>Stillbirth macerated</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>RMNCAH_ANC1</v>
+        <v>RMNCAH_SBM</v>
       </c>
       <c r="E3" s="5" t="str">
-        <v>First visit by a pregnant woman to a health facility to primarily receive antenatal care. The first antenatal visit may be referred to as a ‘booking or scheduled visit’ when various processes are done as per the national policy.</v>
+        <v>Number of facility births where the infant was Stillbirth-Macerated: Still birth is defined as infant born with no signs of life, weighting more than 1,000 g and older than 28 weeks gestation. An antepartum foetal death (stillbirth – macerated) refers to a foetus that has suffered an intrauterine death after the 28th week of gestation and before labour. Maceration describes the degenerative changes that occur in stillbirths retained in the utero after death, and the earliest signs are in the form of discolouration and peeling of the skin, leaving regions of raw tissue.</v>
       </c>
       <c r="F3" s="5" t="str">
-        <v>ANC 1st visit</v>
+        <v>Stillbirths - macerated</v>
       </c>
       <c r="G3" s="5" t="str">
         <v>1</v>
@@ -1357,7 +1365,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I3" s="5" t="str">
-        <v>2019-05-24</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J3" s="5" t="str">
         <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
@@ -1365,22 +1373,22 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>Vgr5AiRKANz</v>
+        <v>alJibw2mTO6</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v xml:space="preserve">[CONFIG] RMNCAH - ANC 4th visit </v>
+        <v>[CONFIG] RMNCAH - Death child 0-4y birth trauma/asphyxia</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v xml:space="preserve">ANC 4th visit </v>
+        <v>Death child 0-4y birth trauma/asphyxia</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>RMNCAH_ANC_4TH</v>
+        <v>RMNCAH_DEATH_CHILD_0-4y_BRTH_TRAUMA_ASPH</v>
       </c>
       <c r="E4" s="4" t="str">
-        <v/>
+        <v>Number of child deaths 0-4years due to birth trauma/asphyxia</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>ANC 4th visit</v>
+        <v>Death child 0-4y birth trauma/asphyxia</v>
       </c>
       <c r="G4" s="4" t="str">
         <v>1</v>
@@ -1389,103 +1397,103 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I4" s="4" t="str">
-        <v>2019-05-24</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J4" s="4" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>FgNnsRgCs8r</v>
+        <v>ALyeW8OBDrh</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>[CONFIG] RMNCAH - ANC 4th visit coverage (%)</v>
+        <v>[CONFIG] RMNCAH - Death child 5-9y pertusis</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>ANC 4th visit coverage (%)</v>
+        <v>Death child 5-9y pertusis</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>RMNCAH_ANC4_COV</v>
+        <v>RMNCAH_DEATH_CHILD_5-9y_PRTSIS</v>
       </c>
       <c r="E5" s="5" t="str">
-        <v>Percentage of expected pregnant women who had 4 ANC visits.</v>
+        <v>Number of child deaths 5-9 years due to pertusis</v>
       </c>
       <c r="F5" s="5" t="str">
-        <v xml:space="preserve">ANC 4th visit </v>
+        <v>Death child 5-9y pertusis</v>
       </c>
       <c r="G5" s="5" t="str">
-        <v>Expected pregnancies (pop data)</v>
+        <v>1</v>
       </c>
       <c r="H5" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I5" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J5" s="5" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>u4MVw6vtaVq</v>
+        <v>aoUZk8o1ula</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>[CONFIG] RMNCAH - ANC 8th visit coverage (%)</v>
+        <v>[CONFIG] RMNCAH - Deaths neonatal</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>ANC 8th visit coverage (%)</v>
+        <v>Deaths neonatal</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>RMNCAH_ANC8_COV</v>
+        <v>RMNCAH_NND</v>
       </c>
       <c r="E6" s="4" t="str">
-        <v>Percentage of expected pregnant women who had 8 ANC visits.</v>
+        <v>Number of newborns who die in the health facility in the first 28 days. Note: This includes any neonatal death in a facility that occurred in the first 28 days – pre-discharge after birth or upon re- admission for an illness.</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>ANC 8th visit</v>
+        <v>Death neonatal</v>
       </c>
       <c r="G6" s="4" t="str">
-        <v>Expected pregnancies (pop data)</v>
+        <v>1</v>
       </c>
       <c r="H6" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I6" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J6" s="4" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>PEXOeNaxOz0</v>
+        <v>b4e4QZfBe5x</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v xml:space="preserve">[CONFIG] RMNCAH - ANC client screened for syphilis </v>
+        <v>[CONFIG] RMNCAH - Uterotonic for prevention of post-partum haemorrhage (%)</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v xml:space="preserve">ANC client screened for syphilis </v>
+        <v>Uterotonic for PPH (%)</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v/>
+        <v>RMNCAH_UPPH</v>
       </c>
       <c r="E7" s="5" t="str">
-        <v>Number of antenatal clients screened for syphilis</v>
+        <v>Percentage of women who gave birth in a facility who received a prophylactic uterotonic immediately after birth for prevention of postpartum hemorrhage. "Immediately" ideally refers to within one minute.</v>
       </c>
       <c r="F7" s="5" t="str">
-        <v>RMNCAH - Antenatal client screened for syphilis</v>
+        <v>Received a prophylactic uterotonic immediately after birth</v>
       </c>
       <c r="G7" s="5" t="str">
-        <v>1</v>
+        <v>Delivery in facility</v>
       </c>
       <c r="H7" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I7" s="5" t="str">
-        <v>2019-05-24</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J7" s="5" t="str">
         <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
@@ -1493,86 +1501,86 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>tkL7UlM3HGM</v>
+        <v>b9f35x2djwF</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>[CONFIG] RMNCAH - ANC client syphilis screening (%)</v>
+        <v>[CONFIG] RMNCAH - Death child 0-4y meningitis</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>ANC syphilis screening (%)</v>
+        <v>Death child 0-4y meningitis</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>RMNCAH_ANCSS</v>
+        <v>RMNCAH_DEATH_CHILD_0-4y_MENG</v>
       </c>
       <c r="E8" s="4" t="str">
-        <v>Percentage of antenatal clients screened for syphilis</v>
+        <v>Number of child deaths 0-4 years due to meningitis</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>ANC clients screened for syphilis</v>
+        <v>Death child 0-4y meningitis</v>
       </c>
       <c r="G8" s="4" t="str">
-        <v>ANC 1st visit</v>
+        <v>1</v>
       </c>
       <c r="H8" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I8" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J8" s="4" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>HPZunOd021x</v>
+        <v>bFFptiqjRAk</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>[CONFIG] RMNCAH - ANC client syphilis treated (%)</v>
+        <v>[CONFIG] RMNCAH - Postnatal care newborns on time (%)</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>ANC syphilis treated (%)</v>
+        <v>Postnatal care newborns timely (%)</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>RMNCAH_ANC_SYPH_TRT</v>
+        <v>RMNCAH_PPNBTV</v>
       </c>
       <c r="E9" s="5" t="str">
-        <v>Percentage of antenatal clients treated for syphilis</v>
+        <v>Percentage of newborns with timely postnatal check according to national guidelines.</v>
       </c>
       <c r="F9" s="5" t="str">
-        <v>ANC clients treated for syphilis</v>
+        <v>Postpartum neonate timely 1st PNC visit</v>
       </c>
       <c r="G9" s="5" t="str">
-        <v>ANC 1st visit</v>
+        <v>Live births in facility</v>
       </c>
       <c r="H9" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I9" s="5" t="str">
-        <v>2020-04-08</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J9" s="5" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+        <v>NBoBsBLsTOW, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>JWVdWMhNGSI</v>
+        <v>bVi8tilV7uO</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v xml:space="preserve">[CONFIG] RMNCAH - ANC clients 1st visit before 12 weeks </v>
+        <v>[CONFIG] RMNCAH - Death child 0-4y malaria</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v xml:space="preserve">ANC 1st visit 0-11wks </v>
+        <v>Death child 0-4y malaria</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v/>
+        <v>RMNCAH_DEATH_CHILD_0-4y_MAL</v>
       </c>
       <c r="E10" s="4" t="str">
-        <v/>
+        <v>Number of child deaths 0-4 years due to malaria</v>
       </c>
       <c r="F10" s="4" t="str">
-        <v>ANC clients 1st visit before 12 weeks (n)</v>
+        <v>Death child 0-4y malaria</v>
       </c>
       <c r="G10" s="4" t="str">
         <v>1</v>
@@ -1581,39 +1589,39 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I10" s="4" t="str">
-        <v>2019-05-24</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J10" s="4" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>IzgsCWHHGBG</v>
+        <v>BvmZb48wAcM</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>[CONFIG] RMNCAH - ANC clients 1st visit before 12 weeks (%)</v>
+        <v>[CONFIG] RMNCAH - Birth Pre-term(%)</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>ANC 1st visit 0-11wks</v>
+        <v>Birth Pre-term (%)</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>RMNCAH_ANC1_12W</v>
+        <v>RMNCAH_BIRTH_PreTERM</v>
       </c>
       <c r="E11" s="5" t="str">
-        <v>Percentage of antenatal clients who attended their 1st ANC visit before 12 weeks gestation</v>
+        <v>Percentage of births in health facility that are pre-term (less than 37 weeks gestation)</v>
       </c>
       <c r="F11" s="5" t="str">
-        <v>ANC 1st visit before 12 weeks</v>
+        <v>Number of pre-term births - under 37weeks gestation</v>
       </c>
       <c r="G11" s="5" t="str">
-        <v>ANC 1st visit</v>
+        <v>Number of live births in facility</v>
       </c>
       <c r="H11" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I11" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-08</v>
       </c>
       <c r="J11" s="5" t="str">
         <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
@@ -1621,86 +1629,86 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>Xn5C1TDrCkr</v>
+        <v>ccsNVDSzNfX</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>[CONFIG] RMNCAH - ANC clients with blood pressure measured (%)</v>
+        <v>[CONFIG] RMNCAH - Deaths maternal reviewed (%)</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>ANC BP measured (%)</v>
+        <v>Deaths maternal reviewed (%)</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>RMNCAH_ANC_BP</v>
+        <v>RMNCAH_MDRV</v>
       </c>
       <c r="E12" s="4" t="str">
-        <v>Percentage of antenatal clients with blood pressure measured.</v>
+        <v>Percentage of maternal deaths reviewed.</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>ANC clients with blood pressure measured</v>
+        <v>Death maternal audited</v>
       </c>
       <c r="G12" s="4" t="str">
-        <v>ANC 1st visit</v>
+        <v>Death maternal</v>
       </c>
       <c r="H12" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I12" s="4" t="str">
-        <v>2020-04-08</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J12" s="4" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>S3oGwzm9RqX</v>
+        <v>cDVlZtmYpBQ</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>[CONFIG] RMNCAH - ANC clients with blood pressure measured in third (3rd) trimester (%)</v>
+        <v>[CONFIG] RMNCAH - Couple year protection rate (CYPR) (%)</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>ANC BP measured in 3rd trimester (%)</v>
+        <v>CYP rate (%)</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>RMNCAH_ANC_BP_3TRI</v>
+        <v>RMNCAH_CYPR</v>
       </c>
       <c r="E13" s="5" t="str">
-        <v>Percentage of antenatal clients with blood pressure measured in third (3rd) trimester.</v>
+        <v>Couple year protection rate, calculated using units of contraceptives distributed with factors, female population. See guidance for formula</v>
       </c>
       <c r="F13" s="5" t="str">
-        <v>ANC clients with blood pressure measured in third (3rd) trimester</v>
+        <v>Sum of units of contraceptives distributed divided by factor</v>
       </c>
       <c r="G13" s="5" t="str">
-        <v>ANC 1st visit</v>
+        <v>Female population 15-49y /12</v>
       </c>
       <c r="H13" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I13" s="5" t="str">
-        <v>2020-04-08</v>
+        <v>2020-04-11</v>
       </c>
       <c r="J13" s="5" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+        <v>RRcDhY8kEtf, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>kZ3uuGsjfBH</v>
+        <v>ChpaxILo7IO</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>[CONFIG] RMNCAH - ANC clients with haemoglobin measured (%)</v>
+        <v>[CONFIG] RMNCAH - HIV PMTCT testing coverage rate - Tested HIV+ during ANC (%)</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>ANC HB measured (%)</v>
+        <v>PMTCT testing coverage - tested HIV+ (%)</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>RMNCAH_ANCHB</v>
+        <v>RMNCAH_PMTCT_TEST_COV_HIV+</v>
       </c>
       <c r="E14" s="4" t="str">
-        <v>Percentage of antenatal clients with haemoglobin level measured.</v>
+        <v xml:space="preserve">Percentage of antenatal clients who tested HIV+ during ANC </v>
       </c>
       <c r="F14" s="4" t="str">
-        <v>ANC clients with haemoglobin level measured</v>
+        <v>ANC clients who tested HIV+ during ANC</v>
       </c>
       <c r="G14" s="4" t="str">
         <v>ANC 1st visit</v>
@@ -1709,7 +1717,7 @@
         <v>Percentage</v>
       </c>
       <c r="I14" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-23</v>
       </c>
       <c r="J14" s="4" t="str">
         <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
@@ -1717,63 +1725,63 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>Dg7dZlcVZGE</v>
+        <v>clN7gBXNEPT</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>[CONFIG] RMNCAH - ANC IPTp3  (%)</v>
+        <v>[CONFIG] RMNCAH - Death child 5-9y acute respiratory infection (ARI)</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>ANC IPTp3 (%)</v>
+        <v>Death child 5-9y ARI</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>RMNCAH_ANC_IPTP3</v>
+        <v>RMNCAH_DEATH_CHILD_5-9y_ARI</v>
       </c>
       <c r="E15" s="5" t="str">
-        <v>Percentage of ANC clients who received the third dose of IPTp: Intermittent preventive therapy for malaria during pregnancy</v>
+        <v>Number of child deaths 5-9 years due to acute respiratory infection (ARI)</v>
       </c>
       <c r="F15" s="5" t="str">
-        <v>IPTp 3rd dose</v>
+        <v>Death child 5-9y acute respiratory infection (ARI)</v>
       </c>
       <c r="G15" s="5" t="str">
-        <v>RMNCAH ANC 1st visit</v>
+        <v>1</v>
       </c>
       <c r="H15" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I15" s="5" t="str">
-        <v>2020-04-11</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J15" s="5" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>uHg0RQeJNpw</v>
+        <v>Dg7dZlcVZGE</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>[CONFIG] RMNCAH - ANC TT2 (tetanus) coverage (%)</v>
+        <v>[CONFIG] RMNCAH - ANC IPTp3  (%)</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>ANC TT2 coverage (%)</v>
+        <v>ANC IPTp3 (%)</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>RMNCAH_TT2_COV</v>
+        <v>RMNCAH_ANC_IPTP3</v>
       </c>
       <c r="E16" s="4" t="str">
-        <v>Percentage of antenatal clients who received at least 2 Tetanus Toxoid doses</v>
+        <v>Percentage of ANC clients who received the third dose of IPTp: Intermittent preventive therapy for malaria during pregnancy</v>
       </c>
       <c r="F16" s="4" t="str">
-        <v>TT2 doses given to pregnant women</v>
+        <v>IPTp 3rd dose</v>
       </c>
       <c r="G16" s="4" t="str">
-        <v>Expected pregnancies (pop data)</v>
+        <v>RMNCAH ANC 1st visit</v>
       </c>
       <c r="H16" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I16" s="4" t="str">
-        <v>2020-04-23</v>
+        <v>2020-04-11</v>
       </c>
       <c r="J16" s="4" t="str">
         <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
@@ -1781,118 +1789,118 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>XXDXVGzvSx1</v>
+        <v>DVIGOKCmnd8</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Assisted delivery rate in institutional deliveries (%)</v>
+        <v>[CONFIG] RMNCAH - Deaths perinatal total in HMIS</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>Assisted institutional delivery rate (%)</v>
+        <v>Deaths perinatal HMIS</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>RMNCAH_AD</v>
+        <v>RMNCAH_PD_HMIS</v>
       </c>
       <c r="E17" s="5" t="str">
-        <v>Percentage of deliveries in health facilities that are assisted (forceps or vacuum)</v>
+        <v>Number of perinatal deaths reported in the HMIS</v>
       </c>
       <c r="F17" s="5" t="str">
-        <v>Delivery in facility - Assisted (Vacuum or forceps)</v>
+        <v>Death perinatal in HMIS</v>
       </c>
       <c r="G17" s="5" t="str">
-        <v>Delivery in facility</v>
+        <v>1</v>
       </c>
       <c r="H17" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I17" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-23</v>
       </c>
       <c r="J17" s="5" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>PH78zjodtpG</v>
+        <v>DWO9EyfG3Fl</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Birth Live in facility with documented birthweight (%)</v>
+        <v>[CONFIG] RMNCAH - Pneumonia treatment in children 0-9 years (%)</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>Live facility births documented birth-weight (%)</v>
+        <v>Pneumonia treatment 0-9y (%)</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>RMNCAH_NBDBW</v>
+        <v>RMNCAH_PNT</v>
       </c>
       <c r="E18" s="4" t="str">
-        <v>Percentage of babies born in a facility with documented birthweight before discharge</v>
+        <v>Percentage of children correctly diagnosed with pneumonia who received treatment.</v>
       </c>
       <c r="F18" s="4" t="str">
-        <v>Live births with documented birth weight</v>
+        <v>Children 0-9 years treated for pneumonia</v>
       </c>
       <c r="G18" s="4" t="str">
-        <v>Live births in facility</v>
+        <v>Children 0-9 years diagnosed with pneumonia</v>
       </c>
       <c r="H18" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I18" s="4" t="str">
-        <v>2020-04-08</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J18" s="4" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM, NBoBsBLsTOW</v>
+        <v>Qc4lDXPFGh7, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>BvmZb48wAcM</v>
+        <v>DzpJ77sHAaQ</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Birth Pre-term(%)</v>
+        <v>[CONFIG] RMNCAH - Death child 5-9y injuries</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>Birth Pre-term (%)</v>
+        <v>Child death 5-9y injuries</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>RMNCAH_BIRTH_PreTERM</v>
+        <v>RMNCAH_DEATH_CHILD_5-9y_INJ</v>
       </c>
       <c r="E19" s="5" t="str">
-        <v>Percentage of births in health facility that are pre-term (less than 37 weeks gestation)</v>
+        <v>Number of child deaths 5-9 years due to injuries</v>
       </c>
       <c r="F19" s="5" t="str">
-        <v>Number of pre-term births - under 37weeks gestation</v>
+        <v>Death child 5-9y injuries</v>
       </c>
       <c r="G19" s="5" t="str">
-        <v>Number of live births in facility</v>
+        <v>1</v>
       </c>
       <c r="H19" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I19" s="5" t="str">
-        <v>2020-04-08</v>
+        <v>2020-04-27</v>
       </c>
       <c r="J19" s="5" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>hjoN5yNAHoP</v>
+        <v>e4NlJyExHPj</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Birth still fresh</v>
+        <v>[CONFIG] RMNCAH - Child received treatment for pneumonia with other medication</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>Stillbirth fresh</v>
+        <v>Child treated for pneumonia other medication</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>RMNCAH_SBF</v>
+        <v>RMNCAH_CRTPN_OMED</v>
       </c>
       <c r="E20" s="4" t="str">
-        <v xml:space="preserve">Number of facility births where the infant was Stillbirth-fresh: Still birth is defined as infant born with no signs of life, weighting more than 1,000 g and older than 28 weeks gestation. An intrapartum foetal death (stillbirth - fresh), refers to a baby that has died after the onset of labour and before birth. </v>
+        <v>Number of children who received treatment for pneumonia with other medication (non-antibiotic)</v>
       </c>
       <c r="F20" s="4" t="str">
-        <v>Stillbirths - fresh</v>
+        <v>Child received treatment for pneumonia with other medication</v>
       </c>
       <c r="G20" s="4" t="str">
         <v>1</v>
@@ -1901,30 +1909,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I20" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J20" s="4" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+        <v>Qc4lDXPFGh7, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>Aii5EOk1xEW</v>
+        <v>Ec4z30wDGVH</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Birth still macerated</v>
+        <v>[CONFIG] RMNCAH - ANC 1st visit</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>Stillbirth macerated</v>
+        <v>ANC 1st visit</v>
       </c>
       <c r="D21" s="5" t="str">
-        <v>RMNCAH_SBM</v>
+        <v>RMNCAH_ANC1</v>
       </c>
       <c r="E21" s="5" t="str">
-        <v>Number of facility births where the infant was Stillbirth-Macerated: Still birth is defined as infant born with no signs of life, weighting more than 1,000 g and older than 28 weeks gestation. An antepartum foetal death (stillbirth – macerated) refers to a foetus that has suffered an intrauterine death after the 28th week of gestation and before labour. Maceration describes the degenerative changes that occur in stillbirths retained in the utero after death, and the earliest signs are in the form of discolouration and peeling of the skin, leaving regions of raw tissue.</v>
+        <v>First visit by a pregnant woman to a health facility to primarily receive antenatal care. The first antenatal visit may be referred to as a ‘booking or scheduled visit’ when various processes are done as per the national policy.</v>
       </c>
       <c r="F21" s="5" t="str">
-        <v>Stillbirths - macerated</v>
+        <v>ANC 1st visit</v>
       </c>
       <c r="G21" s="5" t="str">
         <v>1</v>
@@ -1933,7 +1941,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I21" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2021-06-25</v>
       </c>
       <c r="J21" s="5" t="str">
         <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
@@ -1941,25 +1949,25 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>ylXbHIzTg7x</v>
+        <v>EeIEcimWybJ</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Birth still rate in facility (%)</v>
+        <v>[CONFIG] RMNCAH - IPTp3 coverage (%)</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>Still birth rate (%)</v>
+        <v>IPTp3 coverage (%)</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>RMNCAH_SB</v>
+        <v>RMNCAH_IPTP3_COV</v>
       </c>
       <c r="E22" s="4" t="str">
-        <v>Stillbirth as a percentage of all births in health facilities. (Baby born with no sign of life and weighing at least 1000g or after 28 weeks gestation)</v>
+        <v>Percentage of expected pregnant women who received the third dose of IPTp: Intermittent preventive therapy for malaria during pregnancy</v>
       </c>
       <c r="F22" s="4" t="str">
-        <v>Still births in facility</v>
+        <v>IPTp 3rd dose</v>
       </c>
       <c r="G22" s="4" t="str">
-        <v>Live and still births in facility</v>
+        <v>Expected pregnancies (pop data) in areas with risk of malaria</v>
       </c>
       <c r="H22" s="4" t="str">
         <v>Percentage</v>
@@ -1973,54 +1981,54 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>PBSxUYML4vn</v>
+        <v>Ehw00wViRfW</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Caesarean section rate (%)</v>
+        <v>[CONFIG] RMNCAH TB - Notified TB cases (new and relapse, all forms) aged 0-4</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>C/S delivery rate (%)</v>
+        <v>TB notification 0-4</v>
       </c>
       <c r="D23" s="5" t="str">
-        <v>RMNCAH_CSEB</v>
+        <v>RMNCAH_TB_C_NEWREL_04</v>
       </c>
       <c r="E23" s="5" t="str">
-        <v>Percentage of expected live births that are done by caesarean section</v>
+        <v>Number of TB cases aged 0-4 in given year (new and relapse, all forms)</v>
       </c>
       <c r="F23" s="5" t="str">
-        <v>Delivery by Caesarean Section</v>
+        <v>Number of TB cases aged 0-4 (new and relapse only)</v>
       </c>
       <c r="G23" s="5" t="str">
-        <v>Population live births</v>
+        <v>1</v>
       </c>
       <c r="H23" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I23" s="5" t="str">
-        <v>2019-06-12</v>
+        <v>2020-04-23</v>
       </c>
       <c r="J23" s="5" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+        <v>Qc4lDXPFGh7, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>mX4OsXFUW5A</v>
+        <v>eM54myJGX6k</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Caesarean section rate in institutional deliveries (%)</v>
+        <v>[CONFIG] RMNCAH - Normal delivery rate (%)</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>C/S institutional delivery rate (%)</v>
+        <v>Normal delivery rate (%)</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v>RMNCAH_CS</v>
+        <v>RMNCAH_ND</v>
       </c>
       <c r="E24" s="4" t="str">
-        <v>Percentage of deliveries in health facilities that are caesarean sections</v>
+        <v>Percentage of deliveries in health facilities that are normal (not assisted or by C/S)</v>
       </c>
       <c r="F24" s="4" t="str">
-        <v>Delivery in facility - Caesarean Section</v>
+        <v>Delivery in facility - Normal</v>
       </c>
       <c r="G24" s="4" t="str">
         <v>Delivery in facility</v>
@@ -2029,7 +2037,7 @@
         <v>Percentage</v>
       </c>
       <c r="I24" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J24" s="4" t="str">
         <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
@@ -2037,130 +2045,130 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>SPKKzLb5389</v>
+        <v>eM7UECzxWnh</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Cervical cancer screening coverage women 15-49y (%)</v>
+        <v>[CONFIG] RMNCAH - Child received treatment for pneumonia with other antibiotic</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>Cervical cancer screening coverage women 15-49y(%)</v>
+        <v>Child treated for pneumonia other antibiotic</v>
       </c>
       <c r="D25" s="5" t="str">
-        <v>RMNCAH_SCRN_CERV_CNCR_COV</v>
+        <v>RMNCAH_CRTPN_OANTIB</v>
       </c>
       <c r="E25" s="5" t="str">
-        <v>Percentage of women of reproductive age (15 to 49 years) who were screened for cervical cancer using any of the following methods: visual Inspection with acetic acid/vinegar (VIA), pap smear, human papilloma virus (HPV) test.</v>
+        <v>Number of children who received treatment for pneumonia with other antibiotic (not Amoxicillin)</v>
       </c>
       <c r="F25" s="5" t="str">
-        <v>Women 15-49y screened for cervical cancer</v>
+        <v>Child received treatment for pneumonia with other antibiotic</v>
       </c>
       <c r="G25" s="5" t="str">
-        <v>Women of reproductive age (15-49y)</v>
+        <v>1</v>
       </c>
       <c r="H25" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I25" s="5" t="str">
-        <v>2020-04-08</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J25" s="5" t="str">
-        <v>uDy8xg2ofrw, RRcDhY8kEtf</v>
+        <v>Qc4lDXPFGh7, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>GkfXbG5tG1S</v>
+        <v>ePPf0F5klqt</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Child received treatment for pneumonia with Amoxicillin oral syrup</v>
+        <v>[CONFIG] RMNCAH - Postnatal care mother (%)</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>Child treated for pneumonia Amoxicillin syrup</v>
+        <v>Postnatal care mother (%)</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>RMNCAH_CRTPN_AMOX_OS</v>
+        <v>RMNCAH_PPMV</v>
       </c>
       <c r="E26" s="4" t="str">
-        <v>Number of children who received treatment for pneumonia with Amoxicillin oral syrup</v>
+        <v>Percentage of women with postnatal check. Note: The numerator includes both women who gave birth in the health facility and those who gave birth outside the health facility.</v>
       </c>
       <c r="F26" s="4" t="str">
-        <v>Child received treatment for pneumonia with Amoxicillin</v>
+        <v>Postpartum woman with at least 1 PNC visit</v>
       </c>
       <c r="G26" s="4" t="str">
-        <v>1</v>
+        <v>Delivery in facility</v>
       </c>
       <c r="H26" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I26" s="4" t="str">
-        <v>2020-04-07</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J26" s="4" t="str">
-        <v>uDy8xg2ofrw, Qc4lDXPFGh7</v>
+        <v>NBoBsBLsTOW, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>eM7UECzxWnh</v>
+        <v>FgNnsRgCs8r</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Child received treatment for pneumonia with other antibiotic</v>
+        <v>[CONFIG] RMNCAH - ANC 4th visit coverage (%)</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>Child treated for pneumonia other antibiotic</v>
+        <v>ANC 4th visit coverage (%)</v>
       </c>
       <c r="D27" s="5" t="str">
-        <v>RMNCAH_CRTPN_OANTIB</v>
+        <v>RMNCAH_ANC4_COV</v>
       </c>
       <c r="E27" s="5" t="str">
-        <v>Number of children who received treatment for pneumonia with other antibiotic (not Amoxicillin)</v>
+        <v>Percentage of expected pregnant women who had 4 ANC visits.</v>
       </c>
       <c r="F27" s="5" t="str">
-        <v>Child received treatment for pneumonia with other antibiotic</v>
+        <v xml:space="preserve">ANC 4th visit </v>
       </c>
       <c r="G27" s="5" t="str">
-        <v>1</v>
+        <v>Expected pregnancies (pop data)</v>
       </c>
       <c r="H27" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I27" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J27" s="5" t="str">
-        <v>uDy8xg2ofrw, Qc4lDXPFGh7</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>e4NlJyExHPj</v>
+        <v>fuIpFYTrp5m</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Child received treatment for pneumonia with other medication</v>
+        <v>[CONFIG] MAL - Percentage of cases (confirmed + presumed) treated with ACTs 0-4y</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>Child treated for pneumonia other medication</v>
+        <v>Cases treated with ACTs 0-4 (%)</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v>RMNCAH_CRTPN_OMED</v>
+        <v>MAL_PER_OF_CASES_TREAT_ACTS_0-4</v>
       </c>
       <c r="E28" s="4" t="str">
-        <v>Number of children who received treatment for pneumonia with other medication (non-antibiotic)</v>
+        <v>(Number of full ACT treatment courses distributed to children under 5/ total number of malaria cases (confirmed+presumed))*100</v>
       </c>
       <c r="F28" s="4" t="str">
-        <v>Child received treatment for pneumonia with other medication</v>
+        <v>Treatment with ACT 0-4y</v>
       </c>
       <c r="G28" s="4" t="str">
-        <v>1</v>
+        <v>Confirmed malaria cases (confirmed + presumed) 0-4y</v>
       </c>
       <c r="H28" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I28" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-24</v>
       </c>
       <c r="J28" s="4" t="str">
-        <v>uDy8xg2ofrw, Qc4lDXPFGh7</v>
+        <v>Qc4lDXPFGh7, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="29">
@@ -2189,158 +2197,158 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I29" s="5" t="str">
-        <v>2019-05-24</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J29" s="5" t="str">
-        <v>uDy8xg2ofrw, RRcDhY8kEtf</v>
+        <v>RRcDhY8kEtf, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>K4lCaYeEMvM</v>
+        <v>Gjex4LrpKbB</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Contraception first time user by method</v>
+        <v>[CONFIG] RMNCAH - Postpartum contraceptive acceptors - injectable (%)</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v xml:space="preserve">Contraception 1st time user </v>
+        <v>Postpartum contracept injectable (%)</v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>RMNCAH_FPFT_M</v>
+        <v>RMNCAH_FPPP_INJECT</v>
       </c>
       <c r="E30" s="4" t="str">
-        <v>Number of clients who accepted a family planning method for the 1st time disaggregated by method</v>
+        <v>Percentage of postpartum women delivering in facility initiating injectable as contraceptive method.</v>
       </c>
       <c r="F30" s="4" t="str">
-        <v>Contraception first time user</v>
+        <v>Postpartum woman initiated injectable before discharge after facility delivery</v>
       </c>
       <c r="G30" s="4" t="str">
-        <v>1</v>
+        <v xml:space="preserve"> Delivery in facility</v>
       </c>
       <c r="H30" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I30" s="4" t="str">
-        <v>2020-04-02</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J30" s="4" t="str">
-        <v>uDy8xg2ofrw, RRcDhY8kEtf</v>
+        <v>RRcDhY8kEtf, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>cDVlZtmYpBQ</v>
+        <v>GkfXbG5tG1S</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Couple year protection rate (CYPR) (%)</v>
+        <v>[CONFIG] RMNCAH - Child received treatment for pneumonia with Amoxicillin oral syrup</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v>CYP rate (%)</v>
+        <v>Child treated for pneumonia Amoxicillin syrup</v>
       </c>
       <c r="D31" s="5" t="str">
-        <v>RMNCAH_CYPR</v>
+        <v>RMNCAH_CRTPN_AMOX_OS</v>
       </c>
       <c r="E31" s="5" t="str">
-        <v>Couple year protection rate, calculated using units of contraceptives distributed with factors, female population. See guidance for formula</v>
+        <v>Number of children who received treatment for pneumonia with Amoxicillin oral syrup</v>
       </c>
       <c r="F31" s="5" t="str">
-        <v>Sum of units of contraceptives distributed divided by factor</v>
+        <v>Child received treatment for pneumonia with Amoxicillin</v>
       </c>
       <c r="G31" s="5" t="str">
-        <v>Female population 15-49y /12</v>
+        <v>1</v>
       </c>
       <c r="H31" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I31" s="5" t="str">
-        <v>2020-04-11</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J31" s="5" t="str">
-        <v>uDy8xg2ofrw, RRcDhY8kEtf</v>
+        <v>Qc4lDXPFGh7, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>vhqt3xIZ5Ut</v>
+        <v>Gl4aMQhoxS6</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Death child 0-4y all causes</v>
+        <v>[CONFIG] RMNCAH - HIV PMTCT testing coverage rate - Tested HIV- (neg) during ANC (%)</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>Death child 0-4y all causes</v>
+        <v>PMTCT testing coverage - tested HIV- (%)</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v>RMNCAH_DEATH_CHILD_0-4y_ALL</v>
+        <v>RMNCAH_PMTCT_TEST_COV_HIV-</v>
       </c>
       <c r="E32" s="4" t="str">
-        <v>Number of child deaths 0-4 years due to all causes</v>
+        <v xml:space="preserve">Percentage of antenatal clients who tested HIV- (neg) during ANC </v>
       </c>
       <c r="F32" s="4" t="str">
-        <v>Death child 0-4y all causes</v>
+        <v>ANC clients who tested HIV- (neg) during ANC</v>
       </c>
       <c r="G32" s="4" t="str">
-        <v>1</v>
+        <v>ANC 1st visit</v>
       </c>
       <c r="H32" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I32" s="4" t="str">
-        <v>2020-04-27</v>
+        <v>2020-04-23</v>
       </c>
       <c r="J32" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>alJibw2mTO6</v>
+        <v>gnhcFIap1vN</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Death child 0-4y birth trauma/asphyxia</v>
+        <v>[CONFIG] RMNCAH - Postpartum received family planning counselling (%)</v>
       </c>
       <c r="C33" s="5" t="str">
-        <v>Death child 0-4y birth trauma/asphyxia</v>
+        <v>Postpartum FP counselling</v>
       </c>
       <c r="D33" s="5" t="str">
-        <v>RMNCAH_DEATH_CHILD_0-4y_BRTH_TRAUMA_ASPH</v>
+        <v>RMNCAH_PP_FP_COUNS</v>
       </c>
       <c r="E33" s="5" t="str">
-        <v>Number of child deaths 0-4years due to birth trauma/asphyxia</v>
+        <v>Percentage of women delivering at facility counseled on postpartum family planning prior to discharge</v>
       </c>
       <c r="F33" s="5" t="str">
-        <v>Death child 0-4y birth trauma/asphyxia</v>
+        <v>Postpartum woman received FP counseling before discharge</v>
       </c>
       <c r="G33" s="5" t="str">
-        <v>1</v>
+        <v xml:space="preserve"> Delivery in facility</v>
       </c>
       <c r="H33" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I33" s="5" t="str">
-        <v>2020-04-27</v>
+        <v>2020-04-08</v>
       </c>
       <c r="J33" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>RRcDhY8kEtf, uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>Whob66sPjEE</v>
+        <v>hEbQdwFHUzr</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Death child 0-4y congenital anomalies</v>
+        <v>[CONFIG] RMNCAH - Death neonatal other neonatal conditions</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v>Death child 0-4y congenital anomalies</v>
+        <v>Death neonatal other neonatal conditions</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v>RMNCAH_DEATH_CHILD_0-4y_CONG</v>
+        <v>RMNCAH_NDONC</v>
       </c>
       <c r="E34" s="4" t="str">
-        <v>Number of child deaths 0-4 years due to congenital anomalies</v>
+        <v>Number of Neonatal deaths due to other neonatal conditions</v>
       </c>
       <c r="F34" s="4" t="str">
-        <v>Death child 0-4y congenital anomalies</v>
+        <v>Death neonatal other neonatal conditions</v>
       </c>
       <c r="G34" s="4" t="str">
         <v>1</v>
@@ -2349,30 +2357,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I34" s="4" t="str">
-        <v>2020-04-27</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J34" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>IY9YdW4nbhE</v>
+        <v>hFyOhDujxki</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Death child 0-4y diarrhoea</v>
+        <v>[CONFIG] RMNCAH - Death child 0-4y HIV</v>
       </c>
       <c r="C35" s="5" t="str">
-        <v>Death child 0-4y diarrhoea</v>
+        <v>Death child 0-4y HIV</v>
       </c>
       <c r="D35" s="5" t="str">
-        <v>RMNCAH_DEATH_CHILD_0-4y_DIARR</v>
+        <v>RMNCAH_DEATH_CHILD_0-4y_HIV</v>
       </c>
       <c r="E35" s="5" t="str">
-        <v>Number of child deaths 0-4years due to diarrhoea, and the dehydration caused by diarrhoea</v>
+        <v>Number of child deaths 0-4years due to opportunistic infections from HIV</v>
       </c>
       <c r="F35" s="5" t="str">
-        <v>Death child 0-4y diarrhoea</v>
+        <v>Death child 0-4y HIV</v>
       </c>
       <c r="G35" s="5" t="str">
         <v>1</v>
@@ -2381,30 +2389,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I35" s="5" t="str">
-        <v>2020-04-27</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J35" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>hFyOhDujxki</v>
+        <v>hjoN5yNAHoP</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Death child 0-4y HIV</v>
+        <v>[CONFIG] RMNCAH - Birth still fresh</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v>Death child 0-4y HIV</v>
+        <v>Stillbirth fresh</v>
       </c>
       <c r="D36" s="4" t="str">
-        <v>RMNCAH_DEATH_CHILD_0-4y_HIV</v>
+        <v>RMNCAH_SBF</v>
       </c>
       <c r="E36" s="4" t="str">
-        <v>Number of child deaths 0-4years due to opportunistic infections from HIV</v>
+        <v xml:space="preserve">Number of facility births where the infant was Stillbirth-fresh: Still birth is defined as infant born with no signs of life, weighting more than 1,000 g and older than 28 weeks gestation. An intrapartum foetal death (stillbirth - fresh), refers to a baby that has died after the onset of labour and before birth. </v>
       </c>
       <c r="F36" s="4" t="str">
-        <v>Death child 0-4y HIV</v>
+        <v>Stillbirths - fresh</v>
       </c>
       <c r="G36" s="4" t="str">
         <v>1</v>
@@ -2413,62 +2421,62 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I36" s="4" t="str">
-        <v>2020-04-27</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J36" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>MfHDRuISx5E</v>
+        <v>HPZunOd021x</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Death child 0-4y injuries</v>
+        <v>[CONFIG] RMNCAH - ANC client syphilis treated (%)</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>Child death 0-4y injuries</v>
+        <v>ANC syphilis treated (%)</v>
       </c>
       <c r="D37" s="5" t="str">
-        <v>RMNCAH_DEATH_CHILD_0-4y_INJ</v>
+        <v>RMNCAH_ANC_SYPH_TRT</v>
       </c>
       <c r="E37" s="5" t="str">
-        <v>Number of child deaths 0-4years due to injuries</v>
+        <v>Percentage of antenatal clients treated for syphilis</v>
       </c>
       <c r="F37" s="5" t="str">
-        <v>Death child 0-4y injuries</v>
+        <v>ANC clients treated for syphilis</v>
       </c>
       <c r="G37" s="5" t="str">
-        <v>1</v>
+        <v>ANC 1st visit</v>
       </c>
       <c r="H37" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I37" s="5" t="str">
-        <v>2020-04-27</v>
+        <v>2020-04-08</v>
       </c>
       <c r="J37" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>bVi8tilV7uO</v>
+        <v>HrNswM9rs4n</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Death child 0-4y malaria</v>
+        <v>[CONFIG] RMNCAH - Death neonatal pneumonia</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v>Death child 0-4y malaria</v>
+        <v>Death neonatal pneumonia</v>
       </c>
       <c r="D38" s="4" t="str">
-        <v>RMNCAH_DEATH_CHILD_0-4y_MAL</v>
+        <v>RMNCAH_NDRSCD</v>
       </c>
       <c r="E38" s="4" t="str">
-        <v>Number of child deaths 0-4 years due to malaria</v>
+        <v>Number of Neonatal deaths due to pneumonia</v>
       </c>
       <c r="F38" s="4" t="str">
-        <v>Death child 0-4y malaria</v>
+        <v>Death neonatal pneumonia</v>
       </c>
       <c r="G38" s="4" t="str">
         <v>1</v>
@@ -2477,126 +2485,126 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I38" s="4" t="str">
-        <v>2020-04-27</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J38" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>m3dbw4Or7xs</v>
+        <v>ids6pWvZmh3</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Death child 0-4y measles</v>
+        <v>[CONFIG] RMNCAH - Pneumonia treated with Amoxicillin oral syrup in children 0-9 years (%)</v>
       </c>
       <c r="C39" s="5" t="str">
-        <v>Death child 0-4y measles</v>
+        <v>Pneumonia treated with Amoxicillin syrup 0-9y (%)</v>
       </c>
       <c r="D39" s="5" t="str">
-        <v>RMNCAH_DEATH_CHILD_0-4y_MSLS</v>
+        <v>RMNCAH_PNT_AMOX_OS</v>
       </c>
       <c r="E39" s="5" t="str">
-        <v>Number of child deaths 0-4 years due to measles</v>
+        <v>Percentage of children correctly diagnosed with pneumonia who received treatment with Amoxicillin oral syrup</v>
       </c>
       <c r="F39" s="5" t="str">
-        <v>Death child 0-4y measles</v>
+        <v>Children 0-9 years treated for pneumonia with amoxicillin oral syrup</v>
       </c>
       <c r="G39" s="5" t="str">
-        <v>1</v>
+        <v>Children 0-9 years diagnosed with pneumonia</v>
       </c>
       <c r="H39" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I39" s="5" t="str">
-        <v>2020-04-27</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J39" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>Qc4lDXPFGh7, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>b9f35x2djwF</v>
+        <v>illIO5sBPjx</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Death child 0-4y meningitis</v>
+        <v>[CONFIG] RMNCAH - Newborns treated for neonatal infection (%)</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>Death child 0-4y meningitis</v>
+        <v>Newborns treated for neonatal infection (%)</v>
       </c>
       <c r="D40" s="4" t="str">
-        <v>RMNCAH_DEATH_CHILD_0-4y_MENG</v>
+        <v>RMNCAH_NN_TRT_INFECTN</v>
       </c>
       <c r="E40" s="4" t="str">
-        <v>Number of child deaths 0-4 years due to meningitis</v>
+        <v>Percentage of births in health facility that are pre-term (less than 37 weeks gestation)</v>
       </c>
       <c r="F40" s="4" t="str">
-        <v>Death child 0-4y meningitis</v>
+        <v>Number of newborns treated for neonatal infection</v>
       </c>
       <c r="G40" s="4" t="str">
-        <v>1</v>
+        <v>Number of live births in facility</v>
       </c>
       <c r="H40" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I40" s="4" t="str">
-        <v>2020-04-27</v>
+        <v>2020-04-08</v>
       </c>
       <c r="J40" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>zXhn9sH8oXD</v>
+        <v>iRuJCkcGDov</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Death child 0-4y non communicable diseases (NCDs)</v>
+        <v>[CONFIG] RMNCAH - Women with severe pre-eclampsia/ eclamspsia treated with loading dose of MgSO4 (%)</v>
       </c>
       <c r="C41" s="5" t="str">
-        <v>Death child 0-4y NCD</v>
+        <v>Pre-eclampsia/ eclamspsia treated MgSO4</v>
       </c>
       <c r="D41" s="5" t="str">
-        <v>RMNCAH_DEATH_CHILD_0-4y_NCD</v>
+        <v>RMNCAH_ECLAMP_MgSO4</v>
       </c>
       <c r="E41" s="5" t="str">
-        <v>Number of child deaths 0-4years due to non communicable diseases (NCDs)</v>
+        <v>Percentage of women with severe pre-eclampsia/eclampsia who receive the initial dose of MgSO4 (loading dose) in health facility</v>
       </c>
       <c r="F41" s="5" t="str">
-        <v>Death child 0-4y non communicable diseases</v>
+        <v>Number of women with severe pre-eclampsia/eclampsia who receive the initial dose of MgSO4</v>
       </c>
       <c r="G41" s="5" t="str">
-        <v>1</v>
+        <v xml:space="preserve"> Delivery in facility</v>
       </c>
       <c r="H41" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I41" s="5" t="str">
-        <v>2020-04-27</v>
+        <v>2020-04-23</v>
       </c>
       <c r="J41" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>LBkdosq7QjD</v>
+        <v>IY9YdW4nbhE</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Death child 0-4y other infections</v>
+        <v>[CONFIG] RMNCAH - Death child 0-4y diarrhoea</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>Death child 0-4y other infections</v>
+        <v>Death child 0-4y diarrhoea</v>
       </c>
       <c r="D42" s="4" t="str">
-        <v>RMNCAH_DEATH_CHILD_0-4y_OTH_INF</v>
+        <v>RMNCAH_DEATH_CHILD_0-4y_DIARR</v>
       </c>
       <c r="E42" s="4" t="str">
-        <v>Number of child deaths 0-4 years due to other infections</v>
+        <v>Number of child deaths 0-4years due to diarrhoea, and the dehydration caused by diarrhoea</v>
       </c>
       <c r="F42" s="4" t="str">
-        <v>Death child 0-4y other infections</v>
+        <v>Death child 0-4y diarrhoea</v>
       </c>
       <c r="G42" s="4" t="str">
         <v>1</v>
@@ -2605,30 +2613,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I42" s="4" t="str">
-        <v>2020-04-27</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J42" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>zlR4t4qRTZR</v>
+        <v>iyh3qMkbTe5</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Death child 0-4y pneumonia</v>
+        <v>[CONFIG] RMNCAH - Death child 5-9y malaria</v>
       </c>
       <c r="C43" s="5" t="str">
-        <v>Child death 0-4y pneumonia</v>
+        <v>Death child 5-9y malaria</v>
       </c>
       <c r="D43" s="5" t="str">
-        <v>RMNCAH_DEATH_CHILD_0-4y_PNEU</v>
+        <v>RMNCAH_DEATH_CHILD_5-9y_MAL</v>
       </c>
       <c r="E43" s="5" t="str">
-        <v>Number of child deaths 0-4 years due to pneumonia</v>
+        <v>Number of child deaths 5-9 years due to malaria</v>
       </c>
       <c r="F43" s="5" t="str">
-        <v>Death child 0-4y pneumonia</v>
+        <v>Death child 5-9y malaria</v>
       </c>
       <c r="G43" s="5" t="str">
         <v>1</v>
@@ -2640,91 +2648,91 @@
         <v>2020-04-27</v>
       </c>
       <c r="J43" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>U1Y5H3ruLPD</v>
+        <v>IzgsCWHHGBG</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Death child 0-4y prematurity</v>
+        <v>[CONFIG] RMNCAH - ANC clients 1st visit before 12 weeks (%)</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>Death child 0-4y prematurity</v>
+        <v>ANC 1st visit 0-11wks</v>
       </c>
       <c r="D44" s="4" t="str">
-        <v>RMNCAH_DEATH_CHILD_0-4y_PRM</v>
+        <v>RMNCAH_ANC1_12W</v>
       </c>
       <c r="E44" s="4" t="str">
-        <v>Number of child deaths 0-4 years due to prematurity</v>
+        <v>Percentage of antenatal clients who attended their 1st ANC visit before 12 weeks gestation</v>
       </c>
       <c r="F44" s="4" t="str">
-        <v>Death child 0-4y prematurity</v>
+        <v>ANC 1st visit before 12 weeks</v>
       </c>
       <c r="G44" s="4" t="str">
-        <v>1</v>
+        <v>ANC 1st visit</v>
       </c>
       <c r="H44" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I44" s="4" t="str">
-        <v>2020-04-27</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J44" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>nicBvg2xoZx</v>
+        <v>j5NrAAfsbsz</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Death child 0-4y sepsis</v>
+        <v>[CONFIG] RMNCAH - Postpartum contraceptive acceptors - other method (%)</v>
       </c>
       <c r="C45" s="5" t="str">
-        <v>Death child 0-4y sepsis</v>
+        <v>Postpartum contracept other (%)</v>
       </c>
       <c r="D45" s="5" t="str">
-        <v>RMNCAH_DEATH_CHILD_0-4y_SPSIS</v>
+        <v>RMNCAH_FPPP_OTHER</v>
       </c>
       <c r="E45" s="5" t="str">
-        <v>Number of child deaths 0-4 years due to sepsis</v>
+        <v>Percentage of postpartum women delivering in facility initiating other contraceptive method</v>
       </c>
       <c r="F45" s="5" t="str">
-        <v>Death child 0-4y sepsis</v>
+        <v>Postpartum woman initiated other contraceptive method before discharge after facility delivery</v>
       </c>
       <c r="G45" s="5" t="str">
-        <v>1</v>
+        <v xml:space="preserve"> Delivery in facility</v>
       </c>
       <c r="H45" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I45" s="5" t="str">
-        <v>2020-04-27</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J45" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>RRcDhY8kEtf, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>ThhTw7jEPsC</v>
+        <v>J9K0zzwTlUY</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Death child 0-4y tetanus</v>
+        <v>[CONFIG] RMNCAH - Death child 5-9y all causes</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v>Death child 0-4y tetanus</v>
+        <v>Death child 5-9y all causes</v>
       </c>
       <c r="D46" s="4" t="str">
-        <v>RMNCAH_DEATH_CHILD_0-4y_TT</v>
+        <v>RMNCAH_DEATH_CHILD_5-9y_ALL</v>
       </c>
       <c r="E46" s="4" t="str">
-        <v>Number of child deaths 0-4 years due to tetanus</v>
+        <v>Number of child deaths 5-9 years due to all causes</v>
       </c>
       <c r="F46" s="4" t="str">
-        <v>Death child 0-4y tetanus</v>
+        <v>Death child 5-9y all causes</v>
       </c>
       <c r="G46" s="4" t="str">
         <v>1</v>
@@ -2733,62 +2741,62 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I46" s="4" t="str">
-        <v>2020-04-27</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J46" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>clN7gBXNEPT</v>
+        <v>jkKEMhzQlhT</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Death child 5-9y acute respiratory infection (ARI)</v>
+        <v>[CONFIG] RMNCAH - Female genital mutilation (FGM)</v>
       </c>
       <c r="C47" s="5" t="str">
-        <v>Death child 5-9y ARI</v>
+        <v>Female genital mutilation (FGM)</v>
       </c>
       <c r="D47" s="5" t="str">
-        <v>RMNCAH_DEATH_CHILD_5-9y_ARI</v>
+        <v>RMNCAH_FGM</v>
       </c>
       <c r="E47" s="5" t="str">
-        <v>Number of child deaths 5-9 years due to acute respiratory infection (ARI)</v>
+        <v>Number of women with Female genital mutilation (FGM) reported or observed</v>
       </c>
       <c r="F47" s="5" t="str">
-        <v>Death child 5-9y acute respiratory infection (ARI)</v>
+        <v>Number Female genital mutilation (FGM)</v>
       </c>
       <c r="G47" s="5" t="str">
         <v>1</v>
       </c>
       <c r="H47" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I47" s="5" t="str">
-        <v>2020-04-27</v>
+        <v>2020-04-23</v>
       </c>
       <c r="J47" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>RRcDhY8kEtf, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>J9K0zzwTlUY</v>
+        <v>jr9xTOXzDKJ</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Death child 5-9y all causes</v>
+        <v>[CONFIG] RMNCAH - Death child 5-9y diarrhoeal diseases</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v>Death child 5-9y all causes</v>
+        <v>Death child 5-9y diarrhoeal diseases</v>
       </c>
       <c r="D48" s="4" t="str">
-        <v>RMNCAH_DEATH_CHILD_5-9y_ALL</v>
+        <v>RMNCAH_DEATH_CHILD_5-9y_DIARR</v>
       </c>
       <c r="E48" s="4" t="str">
-        <v>Number of child deaths 5-9 years due to all causes</v>
+        <v>Number of child deaths 5-9 years due to diarrhoea, and the dehydration caused by diarrhoea</v>
       </c>
       <c r="F48" s="4" t="str">
-        <v>Death child 5-9y all causes</v>
+        <v>Death child 5-9y diarrhoeal diseases</v>
       </c>
       <c r="G48" s="4" t="str">
         <v>1</v>
@@ -2800,27 +2808,27 @@
         <v>2020-04-27</v>
       </c>
       <c r="J48" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>jr9xTOXzDKJ</v>
+        <v>JUD9VmMvrI0</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Death child 5-9y diarrhoeal diseases</v>
+        <v>[CONFIG] RMNCAH - Death perinatal in facility</v>
       </c>
       <c r="C49" s="5" t="str">
-        <v>Death child 5-9y diarrhoeal diseases</v>
+        <v>Death perinatal in facility</v>
       </c>
       <c r="D49" s="5" t="str">
-        <v>RMNCAH_DEATH_CHILD_5-9y_DIARR</v>
+        <v>RMNCAH_PD</v>
       </c>
       <c r="E49" s="5" t="str">
-        <v>Number of child deaths 5-9 years due to diarrhoea, and the dehydration caused by diarrhoea</v>
+        <v>Death of a fetus or a newborn in the perinatal period commences at 22 weeks (154 days) of gestation, until 7 days after birth (WHO)</v>
       </c>
       <c r="F49" s="5" t="str">
-        <v>Death child 5-9y diarrhoeal diseases</v>
+        <v xml:space="preserve"> Death perinatal in facility</v>
       </c>
       <c r="G49" s="5" t="str">
         <v>1</v>
@@ -2829,30 +2837,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I49" s="5" t="str">
-        <v>2020-04-27</v>
+        <v>2020-04-23</v>
       </c>
       <c r="J49" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="str">
-        <v>DzpJ77sHAaQ</v>
+        <v>JWVdWMhNGSI</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Death child 5-9y injuries</v>
+        <v xml:space="preserve">[CONFIG] RMNCAH - ANC clients 1st visit before 12 weeks </v>
       </c>
       <c r="C50" s="4" t="str">
-        <v>Child death 5-9y injuries</v>
+        <v xml:space="preserve">ANC 1st visit 0-11wks </v>
       </c>
       <c r="D50" s="4" t="str">
-        <v>RMNCAH_DEATH_CHILD_5-9y_INJ</v>
+        <v/>
       </c>
       <c r="E50" s="4" t="str">
-        <v>Number of child deaths 5-9 years due to injuries</v>
+        <v/>
       </c>
       <c r="F50" s="4" t="str">
-        <v>Death child 5-9y injuries</v>
+        <v>ANC clients 1st visit before 12 weeks (n)</v>
       </c>
       <c r="G50" s="4" t="str">
         <v>1</v>
@@ -2861,30 +2869,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I50" s="4" t="str">
-        <v>2020-04-27</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J50" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="str">
-        <v>iyh3qMkbTe5</v>
+        <v>K4lCaYeEMvM</v>
       </c>
       <c r="B51" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Death child 5-9y malaria</v>
+        <v>[CONFIG] RMNCAH - Contraception first time user by method</v>
       </c>
       <c r="C51" s="5" t="str">
-        <v>Death child 5-9y malaria</v>
+        <v xml:space="preserve">Contraception 1st time user </v>
       </c>
       <c r="D51" s="5" t="str">
-        <v>RMNCAH_DEATH_CHILD_5-9y_MAL</v>
+        <v>RMNCAH_FPFT_M</v>
       </c>
       <c r="E51" s="5" t="str">
-        <v>Number of child deaths 5-9 years due to malaria</v>
+        <v>Number of clients who accepted a family planning method for the 1st time disaggregated by method</v>
       </c>
       <c r="F51" s="5" t="str">
-        <v>Death child 5-9y malaria</v>
+        <v>Contraception first time user</v>
       </c>
       <c r="G51" s="5" t="str">
         <v>1</v>
@@ -2893,30 +2901,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I51" s="5" t="str">
-        <v>2020-04-27</v>
+        <v>2020-04-02</v>
       </c>
       <c r="J51" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>RRcDhY8kEtf, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="str">
-        <v>OsDAfNhFtyX</v>
+        <v>KCWfSkwvp2t</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Death child 5-9y measles</v>
+        <v>[CONFIG] RMNCAH - Death neonatal diarrhoea</v>
       </c>
       <c r="C52" s="4" t="str">
-        <v>Death child 5-9y measles</v>
+        <v>Death neonatal diarrhoea</v>
       </c>
       <c r="D52" s="4" t="str">
-        <v>RMNCAH_DEATH_CHILD_5-9y_MSLS</v>
+        <v>RMNCAH_DEATH_NEO_DIARR</v>
       </c>
       <c r="E52" s="4" t="str">
-        <v>Number of child deaths 5-9 years due to measles</v>
+        <v>Number of Neonatal deaths due to diarrhoea</v>
       </c>
       <c r="F52" s="4" t="str">
-        <v>Death child 5-9y measles</v>
+        <v>Death neonatal diarrhoea</v>
       </c>
       <c r="G52" s="4" t="str">
         <v>1</v>
@@ -2925,62 +2933,62 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I52" s="4" t="str">
-        <v>2020-04-27</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J52" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="str">
-        <v>oSfYVRt4sAn</v>
+        <v>KifLPgn8kkk</v>
       </c>
       <c r="B53" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Death child 5-9y meningitis/encephalitis</v>
+        <v>[CONFIG] RMNCAH - Postpartum contraceptive acceptors - implant (%)</v>
       </c>
       <c r="C53" s="5" t="str">
-        <v>Death child 5-9y meningitis</v>
+        <v>Postpartum contracept implant (%)</v>
       </c>
       <c r="D53" s="5" t="str">
-        <v>RMNCAH_DEATH_CHILD_5-9y_MENG</v>
+        <v>RMNCAH_FPPP_IMPL</v>
       </c>
       <c r="E53" s="5" t="str">
-        <v>Number of child deaths 5-9 years due to meningitis/encephalitis</v>
+        <v>Percentage of postpartum women delivering in facility initiating implant as contraceptive method.</v>
       </c>
       <c r="F53" s="5" t="str">
-        <v>Death child 5-9y meningitis/encephalitis</v>
+        <v>Postpartum woman initiated implant before discharge after facility delivery</v>
       </c>
       <c r="G53" s="5" t="str">
-        <v>1</v>
+        <v xml:space="preserve"> Delivery in facility</v>
       </c>
       <c r="H53" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I53" s="5" t="str">
-        <v>2020-04-27</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J53" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>RRcDhY8kEtf, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="str">
-        <v>ZbMLAo7LTuz</v>
+        <v>kKq3dRugzhF</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Death child 5-9y non communicable diseases (NCDs)</v>
+        <v>[CONFIG] RMNCAH - Deaths children 1 month-9 years</v>
       </c>
       <c r="C54" s="4" t="str">
-        <v>Death child 5-9y NCD</v>
+        <v>Deaths children 1m-9y</v>
       </c>
       <c r="D54" s="4" t="str">
-        <v>RMNCAH_DEATH_CHILD_5-9y_NCD</v>
+        <v>RMNCAH_CD</v>
       </c>
       <c r="E54" s="4" t="str">
-        <v>Number of child deaths 5-9 years due to non communicable diseases (NCDs)</v>
+        <v>Number of children 1 month to 9 years who die in the health facility.</v>
       </c>
       <c r="F54" s="4" t="str">
-        <v>Death child 5-9y non-communicable diseases (NCD)</v>
+        <v>Death child 1m-9y</v>
       </c>
       <c r="G54" s="4" t="str">
         <v>1</v>
@@ -2989,158 +2997,158 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I54" s="4" t="str">
-        <v>2020-04-27</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J54" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="str">
-        <v>t63W8x8sDvq</v>
+        <v>KlAhwKD5lYm</v>
       </c>
       <c r="B55" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Death child 5-9y other infections</v>
+        <v>[CONFIG] RMNCAH - Female genital mutilation (FGM) (%)</v>
       </c>
       <c r="C55" s="5" t="str">
-        <v>Death child 5-9y other infections</v>
+        <v>Female genital mutilation (FGM)%</v>
       </c>
       <c r="D55" s="5" t="str">
-        <v>RMNCAH_DEATH_CHILD_5-9y_OTH_INF</v>
+        <v>RMNCAH_FGM%</v>
       </c>
       <c r="E55" s="5" t="str">
-        <v>Number of child deaths 5-9 years due to other infections</v>
+        <v>Percentage of women with Female genital mutilation (FGM) reported or observed</v>
       </c>
       <c r="F55" s="5" t="str">
-        <v>Death child 5-9y other infections</v>
+        <v>Number Female genital mutilation (FGM)</v>
       </c>
       <c r="G55" s="5" t="str">
-        <v>1</v>
+        <v>ANC 1st visit</v>
       </c>
       <c r="H55" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I55" s="5" t="str">
-        <v>2020-04-27</v>
+        <v>2020-04-23</v>
       </c>
       <c r="J55" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>RRcDhY8kEtf, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="str">
-        <v>ALyeW8OBDrh</v>
+        <v>kQjyaO9FBtb</v>
       </c>
       <c r="B56" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Death child 5-9y pertusis</v>
+        <v>[CONFIG] RMNCAH - Postpartum contraceptive acceptors - pill (%)</v>
       </c>
       <c r="C56" s="4" t="str">
-        <v>Death child 5-9y pertusis</v>
+        <v>Postpartum contracept pil (%)</v>
       </c>
       <c r="D56" s="4" t="str">
-        <v>RMNCAH_DEATH_CHILD_5-9y_PRTSIS</v>
+        <v>RMNCAH_FPPP_PILL</v>
       </c>
       <c r="E56" s="4" t="str">
-        <v>Number of child deaths 5-9 years due to pertusis</v>
+        <v>Percentage of postpartum women delivering in facility initiating pill as contraceptive method.</v>
       </c>
       <c r="F56" s="4" t="str">
-        <v>Death child 5-9y pertusis</v>
+        <v>Postpartum woman initiated contraceptive pill before discharge after facility delivery</v>
       </c>
       <c r="G56" s="4" t="str">
-        <v>1</v>
+        <v xml:space="preserve"> Delivery in facility</v>
       </c>
       <c r="H56" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I56" s="4" t="str">
-        <v>2020-04-27</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J56" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>RRcDhY8kEtf, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="str">
-        <v>t3eSNlyXlSt</v>
+        <v>KwM3KUO7kg4</v>
       </c>
       <c r="B57" s="5" t="str">
-        <v xml:space="preserve">[CONFIG] RMNCAH - Death neonatal congenital </v>
+        <v>[CONFIG] RMNCAH - Postnatal care newborns (%)</v>
       </c>
       <c r="C57" s="5" t="str">
-        <v xml:space="preserve">Death neonatal congenital </v>
+        <v>Postnatal care newborns (%)</v>
       </c>
       <c r="D57" s="5" t="str">
-        <v>RMNCAH_NDCA</v>
+        <v>RMNCAH_PPNBV</v>
       </c>
       <c r="E57" s="5" t="str">
-        <v>Number of Neonatal deaths due to congenital malformations</v>
+        <v>Percentage of newborns with postnatal check. Note: The numerator includes both children born in the health facility and those born outside the health facility.</v>
       </c>
       <c r="F57" s="5" t="str">
-        <v>Death neonatal congenital</v>
+        <v>Newborn with at least 1 PNC visit</v>
       </c>
       <c r="G57" s="5" t="str">
-        <v>1</v>
+        <v>Live births in facility</v>
       </c>
       <c r="H57" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I57" s="5" t="str">
-        <v>2020-04-16</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J57" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>NBoBsBLsTOW, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="str">
-        <v>KCWfSkwvp2t</v>
+        <v>kZ3uuGsjfBH</v>
       </c>
       <c r="B58" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Death neonatal diarrhoea</v>
+        <v>[CONFIG] RMNCAH - ANC clients with haemoglobin measured (%)</v>
       </c>
       <c r="C58" s="4" t="str">
-        <v>Death neonatal diarrhoea</v>
+        <v>ANC HB measured (%)</v>
       </c>
       <c r="D58" s="4" t="str">
-        <v>RMNCAH_DEATH_NEO_DIARR</v>
+        <v>RMNCAH_ANCHB</v>
       </c>
       <c r="E58" s="4" t="str">
-        <v>Number of Neonatal deaths due to diarrhoea</v>
+        <v>Percentage of antenatal clients with haemoglobin level measured.</v>
       </c>
       <c r="F58" s="4" t="str">
-        <v>Death neonatal diarrhoea</v>
+        <v>ANC clients with haemoglobin level measured</v>
       </c>
       <c r="G58" s="4" t="str">
-        <v>1</v>
+        <v>ANC 1st visit</v>
       </c>
       <c r="H58" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I58" s="4" t="str">
-        <v>2020-04-16</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J58" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="5" t="str">
-        <v>roSz8mCKvXo</v>
+        <v>LBkdosq7QjD</v>
       </c>
       <c r="B59" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Death neonatal intrapartum related events</v>
+        <v>[CONFIG] RMNCAH - Death child 0-4y other infections</v>
       </c>
       <c r="C59" s="5" t="str">
-        <v>Death neonatal intrapartum related events</v>
+        <v>Death child 0-4y other infections</v>
       </c>
       <c r="D59" s="5" t="str">
-        <v>RMNCAH_DEATH_NEO_INTRA</v>
+        <v>RMNCAH_DEATH_CHILD_0-4y_OTH_INF</v>
       </c>
       <c r="E59" s="5" t="str">
-        <v>Number of Neonatal deaths due to intrapartum related events</v>
+        <v>Number of child deaths 0-4 years due to other infections</v>
       </c>
       <c r="F59" s="5" t="str">
-        <v>Death neonatal intrapartum related events</v>
+        <v>Death child 0-4y other infections</v>
       </c>
       <c r="G59" s="5" t="str">
         <v>1</v>
@@ -3149,62 +3157,62 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I59" s="5" t="str">
-        <v>2020-04-16</v>
+        <v>2020-04-27</v>
       </c>
       <c r="J59" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="str">
-        <v>hEbQdwFHUzr</v>
+        <v>lMRhTK17SDQ</v>
       </c>
       <c r="B60" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Death neonatal other neonatal conditions</v>
+        <v>[CONFIG] RMNCAH - Institutional delivery rate (%)</v>
       </c>
       <c r="C60" s="4" t="str">
-        <v>Death neonatal other neonatal conditions</v>
+        <v>Institutional delivery rate (%)</v>
       </c>
       <c r="D60" s="4" t="str">
-        <v>RMNCAH_NDONC</v>
+        <v>RMNCAH_INST_DELIV</v>
       </c>
       <c r="E60" s="4" t="str">
-        <v>Number of Neonatal deaths due to other neonatal conditions</v>
+        <v>Percentage of expected deliveries that take place in a health facility</v>
       </c>
       <c r="F60" s="4" t="str">
-        <v>Death neonatal other neonatal conditions</v>
+        <v>Institutional deliveries</v>
       </c>
       <c r="G60" s="4" t="str">
-        <v>1</v>
+        <v>Estimated number of live births</v>
       </c>
       <c r="H60" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I60" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J60" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="5" t="str">
-        <v>HrNswM9rs4n</v>
+        <v>LRufo0zqmvg</v>
       </c>
       <c r="B61" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Death neonatal pneumonia</v>
+        <v>[CONFIG] RMNCAH - Pneumonia number diagnosed in children 5-9 years</v>
       </c>
       <c r="C61" s="5" t="str">
-        <v>Death neonatal pneumonia</v>
+        <v>Pneumonia diagnosis 5-9y</v>
       </c>
       <c r="D61" s="5" t="str">
-        <v>RMNCAH_NDRSCD</v>
+        <v>RMNCAH_PND_5-9</v>
       </c>
       <c r="E61" s="5" t="str">
-        <v>Number of Neonatal deaths due to pneumonia</v>
+        <v>Number of children aged 5-9 years correctly diagnosed with pneumonia.</v>
       </c>
       <c r="F61" s="5" t="str">
-        <v>Death neonatal pneumonia</v>
+        <v>Children diagnosed with pneumonia 5-9 years</v>
       </c>
       <c r="G61" s="5" t="str">
         <v>1</v>
@@ -3213,30 +3221,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I61" s="5" t="str">
-        <v>2020-04-23</v>
+        <v>2020-04-13</v>
       </c>
       <c r="J61" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="4" t="str">
-        <v>aCJadIVZ815</v>
+        <v>m3dbw4Or7xs</v>
       </c>
       <c r="B62" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Death neonatal pre-term birth complications</v>
+        <v>[CONFIG] RMNCAH - Death child 0-4y measles</v>
       </c>
       <c r="C62" s="4" t="str">
-        <v>Death neonatal pre-term birth</v>
+        <v>Death child 0-4y measles</v>
       </c>
       <c r="D62" s="4" t="str">
-        <v>RMNCAH_NDLBWPR</v>
+        <v>RMNCAH_DEATH_CHILD_0-4y_MSLS</v>
       </c>
       <c r="E62" s="4" t="str">
-        <v>Number of Neonatal deaths due to pre-term birth complications</v>
+        <v>Number of child deaths 0-4 years due to measles</v>
       </c>
       <c r="F62" s="4" t="str">
-        <v>Death neonatal pre-term birth complications</v>
+        <v>Death child 0-4y measles</v>
       </c>
       <c r="G62" s="4" t="str">
         <v>1</v>
@@ -3245,30 +3253,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I62" s="4" t="str">
-        <v>2020-04-23</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J62" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="5" t="str">
-        <v>zJnHulDK3si</v>
+        <v>MfHDRuISx5E</v>
       </c>
       <c r="B63" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Death neonatal sepsis or meningitis</v>
+        <v>[CONFIG] RMNCAH - Death child 0-4y injuries</v>
       </c>
       <c r="C63" s="5" t="str">
-        <v>Death neonatal sepsis or meningitis</v>
+        <v>Child death 0-4y injuries</v>
       </c>
       <c r="D63" s="5" t="str">
-        <v>RMNCAH_DEATH_NEO_SEPSS</v>
+        <v>RMNCAH_DEATH_CHILD_0-4y_INJ</v>
       </c>
       <c r="E63" s="5" t="str">
-        <v>Number of Neonatal deaths due to sepsis or meningitis</v>
+        <v>Number of child deaths 0-4years due to injuries</v>
       </c>
       <c r="F63" s="5" t="str">
-        <v>Death neonatal sepsis or meningitis</v>
+        <v>Death child 0-4y injuries</v>
       </c>
       <c r="G63" s="5" t="str">
         <v>1</v>
@@ -3277,30 +3285,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I63" s="5" t="str">
-        <v>2020-04-16</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J63" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="str">
-        <v>YQF5aH1USqa</v>
+        <v>mGNOMd9KSEX</v>
       </c>
       <c r="B64" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Death neonatal tetanus</v>
+        <v>[CONFIG] RMNCAH - Delivery in facility Caesarean Section</v>
       </c>
       <c r="C64" s="4" t="str">
-        <v>Death neonatal tetanus</v>
+        <v>Delivery C/S</v>
       </c>
       <c r="D64" s="4" t="str">
-        <v>RMNCAH_DEATH_NEO_TT</v>
+        <v>RMNCAH_DLV_HF_CS</v>
       </c>
       <c r="E64" s="4" t="str">
-        <v>Number of Neonatal deaths due to tetanus</v>
+        <v/>
       </c>
       <c r="F64" s="4" t="str">
-        <v>Death neonatal tetanus</v>
+        <v>Delivery by Caesarean section</v>
       </c>
       <c r="G64" s="4" t="str">
         <v>1</v>
@@ -3309,62 +3317,62 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I64" s="4" t="str">
-        <v>2020-04-16</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J64" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="5" t="str">
-        <v>Zr4GSWRPQaM</v>
+        <v>mX4OsXFUW5A</v>
       </c>
       <c r="B65" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Death neonatal unclassified</v>
+        <v>[CONFIG] RMNCAH - Caesarean section rate in institutional deliveries (%)</v>
       </c>
       <c r="C65" s="5" t="str">
-        <v>Death neonatal unclassified</v>
+        <v>C/S institutional delivery rate (%)</v>
       </c>
       <c r="D65" s="5" t="str">
-        <v>RMNCAH_DEATH_NEO_UNCLASS</v>
+        <v>RMNCAH_CS</v>
       </c>
       <c r="E65" s="5" t="str">
-        <v>Number of Neonatal deaths unclassified</v>
+        <v>Percentage of deliveries in health facilities that are caesarean sections</v>
       </c>
       <c r="F65" s="5" t="str">
-        <v>Death neonatal unclassified</v>
+        <v>Delivery in facility - Caesarean Section</v>
       </c>
       <c r="G65" s="5" t="str">
-        <v>1</v>
+        <v>Delivery in facility</v>
       </c>
       <c r="H65" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I65" s="5" t="str">
-        <v>2020-04-16</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J65" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="4" t="str">
-        <v>JUD9VmMvrI0</v>
+        <v>MzYEREexpDM</v>
       </c>
       <c r="B66" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Death perinatal in facility</v>
+        <v>[CONFIG] RMNCAH - Deaths maternal in facility</v>
       </c>
       <c r="C66" s="4" t="str">
-        <v>Death perinatal in facility</v>
+        <v>Deaths maternal facility</v>
       </c>
       <c r="D66" s="4" t="str">
-        <v>RMNCAH_PD</v>
+        <v>RMNCAH_MD</v>
       </c>
       <c r="E66" s="4" t="str">
-        <v>Death of a fetus or a newborn in the perinatal period commences at 22 weeks (154 days) of gestation, until 7 days after birth (WHO)</v>
+        <v>Number of maternal deaths in facility. Note: This can include women who gave birth outside a facility.</v>
       </c>
       <c r="F66" s="4" t="str">
-        <v xml:space="preserve"> Death perinatal in facility</v>
+        <v>Death maternal</v>
       </c>
       <c r="G66" s="4" t="str">
         <v>1</v>
@@ -3373,62 +3381,62 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I66" s="4" t="str">
-        <v>2020-04-23</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J66" s="4" t="str">
-        <v>uDy8xg2ofrw</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="5" t="str">
-        <v>kKq3dRugzhF</v>
+        <v>n6R5483SG14</v>
       </c>
       <c r="B67" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Deaths children 1 month-9 years</v>
+        <v>[CONFIG] RMNCAH - Deaths perinatal reviewed (%)</v>
       </c>
       <c r="C67" s="5" t="str">
-        <v>Deaths children 1m-9y</v>
+        <v>Deaths perinatal reviewed (%)</v>
       </c>
       <c r="D67" s="5" t="str">
-        <v>RMNCAH_CD</v>
+        <v>RMNCAH_PDRV</v>
       </c>
       <c r="E67" s="5" t="str">
-        <v>Number of children 1 month to 9 years who die in the health facility.</v>
+        <v>Percentage of perinatal deaths reviewed.</v>
       </c>
       <c r="F67" s="5" t="str">
-        <v>Death child 1m-9y</v>
+        <v>Death perinatal audited</v>
       </c>
       <c r="G67" s="5" t="str">
-        <v>1</v>
+        <v>Death perinatal</v>
       </c>
       <c r="H67" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I67" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J67" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="str">
-        <v>MzYEREexpDM</v>
+        <v>nicBvg2xoZx</v>
       </c>
       <c r="B68" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Deaths maternal in facility</v>
+        <v>[CONFIG] RMNCAH - Death child 0-4y sepsis</v>
       </c>
       <c r="C68" s="4" t="str">
-        <v>Deaths maternal facility</v>
+        <v>Death child 0-4y sepsis</v>
       </c>
       <c r="D68" s="4" t="str">
-        <v>RMNCAH_MD</v>
+        <v>RMNCAH_DEATH_CHILD_0-4y_SPSIS</v>
       </c>
       <c r="E68" s="4" t="str">
-        <v>Number of maternal deaths in facility. Note: This can include women who gave birth outside a facility.</v>
+        <v>Number of child deaths 0-4 years due to sepsis</v>
       </c>
       <c r="F68" s="4" t="str">
-        <v>Death maternal</v>
+        <v>Death child 0-4y sepsis</v>
       </c>
       <c r="G68" s="4" t="str">
         <v>1</v>
@@ -3437,129 +3445,129 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I68" s="4" t="str">
-        <v>2020-04-23</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J68" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="5" t="str">
-        <v>ccsNVDSzNfX</v>
+        <v>nqn330c9jOa</v>
       </c>
       <c r="B69" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Deaths maternal reviewed (%)</v>
+        <v>[CONFIG] RMNCAH - Diarrhoea treated with ORS only in children 0-9 years (%)</v>
       </c>
       <c r="C69" s="5" t="str">
-        <v>Deaths maternal reviewed (%)</v>
+        <v>Diarrhoea treated ORS only 0-9y (%)</v>
       </c>
       <c r="D69" s="5" t="str">
-        <v>RMNCAH_MDRV</v>
+        <v>RMNCAH_DT_ORS</v>
       </c>
       <c r="E69" s="5" t="str">
-        <v>Percentage of maternal deaths reviewed.</v>
+        <v>Percentage of children diagnosed with diarrhoea who received treatment with ORS only.</v>
       </c>
       <c r="F69" s="5" t="str">
-        <v>Death maternal audited</v>
+        <v>Children 0-9 years treated for diarrhoea with ORS only</v>
       </c>
       <c r="G69" s="5" t="str">
-        <v>Death maternal</v>
+        <v>Children 0-9 years diagnosed with diarrhoea</v>
       </c>
       <c r="H69" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I69" s="5" t="str">
-        <v>2020-04-07</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J69" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>Qc4lDXPFGh7, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="str">
-        <v>rpSllz1AKMa</v>
+        <v>o63QMqOyYg7</v>
       </c>
       <c r="B70" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Deaths maternal total in HMIS</v>
+        <v>[CONFIG] RMNCAH - Postnatal care mother on time (%)</v>
       </c>
       <c r="C70" s="4" t="str">
-        <v>Deaths maternal HMIS</v>
+        <v>PNC mother timely (%)</v>
       </c>
       <c r="D70" s="4" t="str">
-        <v>RMNCAH_MD_HMIS</v>
+        <v>RMNCAH_PPMTV</v>
       </c>
       <c r="E70" s="4" t="str">
-        <v>Number of maternal deaths reported in the HMIS</v>
+        <v>Percentage of women with timely postnatal check. Timely refers to national guidelines.</v>
       </c>
       <c r="F70" s="4" t="str">
-        <v>Death maternal</v>
+        <v>Postpartum woman timely 1st PNC visit</v>
       </c>
       <c r="G70" s="4" t="str">
-        <v>1</v>
+        <v>Delivery in facility</v>
       </c>
       <c r="H70" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I70" s="4" t="str">
-        <v>2020-04-23</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J70" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>NBoBsBLsTOW, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="5" t="str">
-        <v>aoUZk8o1ula</v>
+        <v>oCvwO2UvZD1</v>
       </c>
       <c r="B71" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Deaths neonatal</v>
+        <v>[CONFIG] RMNCAH - Pneumonia treated with other antibiotic in children 0-9 years (%)</v>
       </c>
       <c r="C71" s="5" t="str">
-        <v>Deaths neonatal</v>
+        <v>Pneumonia treated with other antibiotic 0-9y (%)</v>
       </c>
       <c r="D71" s="5" t="str">
-        <v>RMNCAH_NND</v>
+        <v>RMNCAH_PNT_OAB</v>
       </c>
       <c r="E71" s="5" t="str">
-        <v>Number of newborns who die in the health facility in the first 28 days. Note: This includes any neonatal death in a facility that occurred in the first 28 days – pre-discharge after birth or upon re- admission for an illness.</v>
+        <v>Percentage of children correctly diagnosed with pneumonia who received treatment with an antibiotic other than amoxicillin.</v>
       </c>
       <c r="F71" s="5" t="str">
-        <v>Death neonatal</v>
+        <v>Children 0-9 years treated for pneumonia with other antibiotic than amoxicillin</v>
       </c>
       <c r="G71" s="5" t="str">
-        <v>1</v>
+        <v>Children 0-9 years diagnosed with pneumonia</v>
       </c>
       <c r="H71" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I71" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J71" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>Qc4lDXPFGh7, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="str">
-        <v>n6R5483SG14</v>
+        <v>OjGUSxKM05J</v>
       </c>
       <c r="B72" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Deaths perinatal reviewed (%)</v>
+        <v>[CONFIG] RMNCAH - Pneumonia treated with Amoxicillin dispersed tablet in children 0-9 years (%)</v>
       </c>
       <c r="C72" s="4" t="str">
-        <v>Deaths perinatal reviewed (%)</v>
+        <v>Pneumonia treated with Amoxicillin tablet 0-9y (%)</v>
       </c>
       <c r="D72" s="4" t="str">
-        <v>RMNCAH_PDRV</v>
+        <v>RMNCAH_PNT_AMOX_TAB</v>
       </c>
       <c r="E72" s="4" t="str">
-        <v>Percentage of perinatal deaths reviewed.</v>
+        <v>Percentage of children correctly diagnosed with pneumonia who received treatment with Amoxicillin dispersed tablet</v>
       </c>
       <c r="F72" s="4" t="str">
-        <v>Death perinatal audited</v>
+        <v>Children 0-9 years treated for pneumonia with amoxicillin dispersed tablet</v>
       </c>
       <c r="G72" s="4" t="str">
-        <v>Death perinatal</v>
+        <v>Children 0-9 years diagnosed with pneumonia</v>
       </c>
       <c r="H72" s="4" t="str">
         <v>Percentage</v>
@@ -3568,27 +3576,27 @@
         <v>2020-04-07</v>
       </c>
       <c r="J72" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>Qc4lDXPFGh7, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="5" t="str">
-        <v>DVIGOKCmnd8</v>
+        <v>OsDAfNhFtyX</v>
       </c>
       <c r="B73" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Deaths perinatal total in HMIS</v>
+        <v>[CONFIG] RMNCAH - Death child 5-9y measles</v>
       </c>
       <c r="C73" s="5" t="str">
-        <v>Deaths perinatal HMIS</v>
+        <v>Death child 5-9y measles</v>
       </c>
       <c r="D73" s="5" t="str">
-        <v>RMNCAH_PD_HMIS</v>
+        <v>RMNCAH_DEATH_CHILD_5-9y_MSLS</v>
       </c>
       <c r="E73" s="5" t="str">
-        <v>Number of perinatal deaths reported in the HMIS</v>
+        <v>Number of child deaths 5-9 years due to measles</v>
       </c>
       <c r="F73" s="5" t="str">
-        <v>Death perinatal in HMIS</v>
+        <v>Death child 5-9y measles</v>
       </c>
       <c r="G73" s="5" t="str">
         <v>1</v>
@@ -3597,30 +3605,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I73" s="5" t="str">
-        <v>2020-04-23</v>
+        <v>2020-04-27</v>
       </c>
       <c r="J73" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="4" t="str">
-        <v>Qgu1gY7fKiC</v>
+        <v>oSfYVRt4sAn</v>
       </c>
       <c r="B74" s="4" t="str">
-        <v xml:space="preserve">[CONFIG] RMNCAH - Delivery in facility </v>
+        <v>[CONFIG] RMNCAH - Death child 5-9y meningitis/encephalitis</v>
       </c>
       <c r="C74" s="4" t="str">
-        <v xml:space="preserve">Delivery in facility </v>
+        <v>Death child 5-9y meningitis</v>
       </c>
       <c r="D74" s="4" t="str">
-        <v>RMNCAH_DELIV_HF</v>
+        <v>RMNCAH_DEATH_CHILD_5-9y_MENG</v>
       </c>
       <c r="E74" s="4" t="str">
-        <v/>
+        <v>Number of child deaths 5-9 years due to meningitis/encephalitis</v>
       </c>
       <c r="F74" s="4" t="str">
-        <v>Delivery in facility</v>
+        <v>Death child 5-9y meningitis/encephalitis</v>
       </c>
       <c r="G74" s="4" t="str">
         <v>1</v>
@@ -3629,161 +3637,161 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I74" s="4" t="str">
-        <v>2019-05-24</v>
+        <v>2020-04-27</v>
       </c>
       <c r="J74" s="4" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="5" t="str">
-        <v>mGNOMd9KSEX</v>
+        <v>oshwEXipmih</v>
       </c>
       <c r="B75" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Delivery in facility Caesarean Section</v>
+        <v>[CONFIG] RMNCAH - Postpartum contraceptive acceptors - IUD (%)</v>
       </c>
       <c r="C75" s="5" t="str">
-        <v>Delivery C/S</v>
+        <v>Postpartum contracept IUD (%)</v>
       </c>
       <c r="D75" s="5" t="str">
-        <v>RMNCAH_DLV_HF_CS</v>
+        <v>RMNCAH_FPPP_IUD</v>
       </c>
       <c r="E75" s="5" t="str">
-        <v/>
+        <v>Percentage of postpartum women delivering in facility initiating IUD as contraceptive method.</v>
       </c>
       <c r="F75" s="5" t="str">
-        <v>Delivery by Caesarean section</v>
+        <v>Postpartum woman initiated IUD before discharge after facility delivery</v>
       </c>
       <c r="G75" s="5" t="str">
-        <v>1</v>
+        <v xml:space="preserve"> Delivery in facility</v>
       </c>
       <c r="H75" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I75" s="5" t="str">
-        <v>2019-06-11</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J75" s="5" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+        <v>RRcDhY8kEtf, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="4" t="str">
-        <v>Z2Df1NeNaEj</v>
+        <v>PBSxUYML4vn</v>
       </c>
       <c r="B76" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Diarrhoea treated with ORS and zinc in children 0-9 years (%)</v>
+        <v>[CONFIG] RMNCAH - Caesarean section rate (%)</v>
       </c>
       <c r="C76" s="4" t="str">
-        <v>Diarrhoea treated ORS+Zinc 0-9y (%)</v>
+        <v>C/S delivery rate (%)</v>
       </c>
       <c r="D76" s="4" t="str">
-        <v>RMNCAH_DT_ORSZINC</v>
+        <v>RMNCAH_CSEB</v>
       </c>
       <c r="E76" s="4" t="str">
-        <v>Percentage of children diagnosed with diarrhoea who received treatment with ORS and Zinc.</v>
+        <v>Percentage of expected live births that are done by caesarean section</v>
       </c>
       <c r="F76" s="4" t="str">
-        <v>Children 0-9 years treated for diarrhoea with ORS</v>
+        <v>Delivery by Caesarean Section</v>
       </c>
       <c r="G76" s="4" t="str">
-        <v>Children 0-9 years diagnosed with diarrhoea</v>
+        <v>Population live births</v>
       </c>
       <c r="H76" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I76" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J76" s="4" t="str">
-        <v>uDy8xg2ofrw, Qc4lDXPFGh7</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="5" t="str">
-        <v>nqn330c9jOa</v>
+        <v>PEXOeNaxOz0</v>
       </c>
       <c r="B77" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Diarrhoea treated with ORS only in children 0-9 years (%)</v>
+        <v xml:space="preserve">[CONFIG] RMNCAH - ANC client screened for syphilis </v>
       </c>
       <c r="C77" s="5" t="str">
-        <v>Diarrhoea treated ORS only 0-9y (%)</v>
+        <v xml:space="preserve">ANC client screened for syphilis </v>
       </c>
       <c r="D77" s="5" t="str">
-        <v>RMNCAH_DT_ORS</v>
+        <v/>
       </c>
       <c r="E77" s="5" t="str">
-        <v>Percentage of children diagnosed with diarrhoea who received treatment with ORS only.</v>
+        <v>Number of antenatal clients screened for syphilis</v>
       </c>
       <c r="F77" s="5" t="str">
-        <v>Children 0-9 years treated for diarrhoea with ORS only</v>
+        <v>RMNCAH - Antenatal client screened for syphilis</v>
       </c>
       <c r="G77" s="5" t="str">
-        <v>Children 0-9 years diagnosed with diarrhoea</v>
+        <v>1</v>
       </c>
       <c r="H77" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I77" s="5" t="str">
-        <v>2020-04-06</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J77" s="5" t="str">
-        <v>uDy8xg2ofrw, Qc4lDXPFGh7</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="4" t="str">
-        <v>UX5BdEApNEI</v>
+        <v>PH78zjodtpG</v>
       </c>
       <c r="B78" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Diarrhoea treatment in children 0-9 years (%)</v>
+        <v>[CONFIG] RMNCAH - Birth Live in facility with documented birthweight (%)</v>
       </c>
       <c r="C78" s="4" t="str">
-        <v>Diarrhoea treatment 0-9y (%)</v>
+        <v>Live facility births documented birth-weight (%)</v>
       </c>
       <c r="D78" s="4" t="str">
-        <v>RMNCAH_DT</v>
+        <v>RMNCAH_NBDBW</v>
       </c>
       <c r="E78" s="4" t="str">
-        <v>Percentage of children diagnosed with diarrhoea who received treatment.</v>
+        <v>Percentage of babies born in a facility with documented birthweight before discharge</v>
       </c>
       <c r="F78" s="4" t="str">
-        <v>Children 0-9 years treated for diarrhoea</v>
+        <v>Live births with documented birth weight</v>
       </c>
       <c r="G78" s="4" t="str">
-        <v>Children 0-9 years diagnosed with diarrhoea</v>
+        <v>Live births in facility</v>
       </c>
       <c r="H78" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I78" s="4" t="str">
-        <v>2020-04-29</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J78" s="4" t="str">
-        <v>uDy8xg2ofrw, Qc4lDXPFGh7</v>
+        <v>NBoBsBLsTOW, uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="5" t="str">
-        <v>jkKEMhzQlhT</v>
+        <v>PPRB8AW3Pse</v>
       </c>
       <c r="B79" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Female genital mutilation (FGM)</v>
+        <v>[CONFIG] RMNCAH - Gynaecology abortion care (%)</v>
       </c>
       <c r="C79" s="5" t="str">
-        <v>Female genital mutilation (FGM)</v>
+        <v>Gynaecology abortion care%</v>
       </c>
       <c r="D79" s="5" t="str">
-        <v>RMNCAH_FGM</v>
+        <v>RMNCAH_GYN_ABORT_CARE%</v>
       </c>
       <c r="E79" s="5" t="str">
-        <v>Number of women with Female genital mutilation (FGM) reported or observed</v>
+        <v>Percentage of women presenting for gynecological indications related to abortion</v>
       </c>
       <c r="F79" s="5" t="str">
-        <v>Number Female genital mutilation (FGM)</v>
+        <v>Number of women presenting for gynecological indications related to abortion</v>
       </c>
       <c r="G79" s="5" t="str">
-        <v>1</v>
+        <v>Number of women presenting for gynecological indications</v>
       </c>
       <c r="H79" s="5" t="str">
         <v>Percentage</v>
@@ -3792,155 +3800,155 @@
         <v>2020-04-23</v>
       </c>
       <c r="J79" s="5" t="str">
-        <v>uDy8xg2ofrw, RRcDhY8kEtf</v>
+        <v>RRcDhY8kEtf, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="4" t="str">
-        <v>KlAhwKD5lYm</v>
+        <v>Qgu1gY7fKiC</v>
       </c>
       <c r="B80" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Female genital mutilation (FGM) (%)</v>
+        <v xml:space="preserve">[CONFIG] RMNCAH - Delivery in facility </v>
       </c>
       <c r="C80" s="4" t="str">
-        <v>Female genital mutilation (FGM)%</v>
+        <v xml:space="preserve">Delivery in facility </v>
       </c>
       <c r="D80" s="4" t="str">
-        <v>RMNCAH_FGM%</v>
+        <v>RMNCAH_DELIV_HF</v>
       </c>
       <c r="E80" s="4" t="str">
-        <v>Percentage of women with Female genital mutilation (FGM) reported or observed</v>
+        <v/>
       </c>
       <c r="F80" s="4" t="str">
-        <v>Number Female genital mutilation (FGM)</v>
+        <v>Delivery in facility</v>
       </c>
       <c r="G80" s="4" t="str">
-        <v>ANC 1st visit</v>
+        <v>1</v>
       </c>
       <c r="H80" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I80" s="4" t="str">
-        <v>2020-04-23</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J80" s="4" t="str">
-        <v>uDy8xg2ofrw, RRcDhY8kEtf</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="5" t="str">
-        <v>XoEBUcTy62Q</v>
+        <v>qRfZ7sdScVv</v>
       </c>
       <c r="B81" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Gynaecology abortion care</v>
+        <v>[CONFIG] RMNCAH - Pneumonia treated with non-antibiotic medication in children 0-9 years (%)</v>
       </c>
       <c r="C81" s="5" t="str">
-        <v>Gynaecology abortion care</v>
+        <v>Pneumonia treated other medication 0-9y (%)</v>
       </c>
       <c r="D81" s="5" t="str">
-        <v>RMNCAH_GYN_ABORT_CARE</v>
+        <v>RMNCAH_PNT_OTHER</v>
       </c>
       <c r="E81" s="5" t="str">
-        <v>Number of women presenting for gynecological indications related to abortion</v>
+        <v>Percentage of children correctly diagnosed with pneumonia who received treatment with other (non-antibiotic) medication</v>
       </c>
       <c r="F81" s="5" t="str">
-        <v>Number of women presenting for gynecological indications related to abortion</v>
+        <v>Children 0-9 years treated for pneumonia with other medication than antibiotics</v>
       </c>
       <c r="G81" s="5" t="str">
-        <v>1</v>
+        <v>Children 0-9 years diagnosed with pneumonia</v>
       </c>
       <c r="H81" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I81" s="5" t="str">
-        <v>2020-04-23</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J81" s="5" t="str">
-        <v>uDy8xg2ofrw, RRcDhY8kEtf</v>
+        <v>Qc4lDXPFGh7, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="4" t="str">
-        <v>PPRB8AW3Pse</v>
+        <v>roSz8mCKvXo</v>
       </c>
       <c r="B82" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Gynaecology abortion care (%)</v>
+        <v>[CONFIG] RMNCAH - Death neonatal intrapartum related events</v>
       </c>
       <c r="C82" s="4" t="str">
-        <v>Gynaecology abortion care%</v>
+        <v>Death neonatal intrapartum related events</v>
       </c>
       <c r="D82" s="4" t="str">
-        <v>RMNCAH_GYN_ABORT_CARE%</v>
+        <v>RMNCAH_DEATH_NEO_INTRA</v>
       </c>
       <c r="E82" s="4" t="str">
-        <v>Percentage of women presenting for gynecological indications related to abortion</v>
+        <v>Number of Neonatal deaths due to intrapartum related events</v>
       </c>
       <c r="F82" s="4" t="str">
-        <v>Number of women presenting for gynecological indications related to abortion</v>
+        <v>Death neonatal intrapartum related events</v>
       </c>
       <c r="G82" s="4" t="str">
-        <v>Number of women presenting for gynecological indications</v>
+        <v>1</v>
       </c>
       <c r="H82" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I82" s="4" t="str">
-        <v>2020-04-23</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J82" s="4" t="str">
-        <v>uDy8xg2ofrw, RRcDhY8kEtf</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="5" t="str">
-        <v>xGXryTKcNY2</v>
+        <v>rpSllz1AKMa</v>
       </c>
       <c r="B83" s="5" t="str">
-        <v>[CONFIG] RMNCAH - HIV PMTCT testing coverage rate - Known HIV+ at ANC entry (%)</v>
+        <v>[CONFIG] RMNCAH - Deaths maternal total in HMIS</v>
       </c>
       <c r="C83" s="5" t="str">
-        <v>PMTCT testing coverage - known HIV+ (%)</v>
+        <v>Deaths maternal HMIS</v>
       </c>
       <c r="D83" s="5" t="str">
-        <v>RMNCAH_PMTCT_TEST_COV_KNWN_HIV+</v>
+        <v>RMNCAH_MD_HMIS</v>
       </c>
       <c r="E83" s="5" t="str">
-        <v>Percentage of antenatal clients with known HIV+ status at ANC entry</v>
+        <v>Number of maternal deaths reported in the HMIS</v>
       </c>
       <c r="F83" s="5" t="str">
-        <v>ANC clients with known HIV+ status</v>
+        <v>Death maternal</v>
       </c>
       <c r="G83" s="5" t="str">
-        <v>ANC 1st visit</v>
+        <v>1</v>
       </c>
       <c r="H83" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I83" s="5" t="str">
         <v>2020-04-23</v>
       </c>
       <c r="J83" s="5" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="4" t="str">
-        <v>ChpaxILo7IO</v>
+        <v>S3oGwzm9RqX</v>
       </c>
       <c r="B84" s="4" t="str">
-        <v>[CONFIG] RMNCAH - HIV PMTCT testing coverage rate - Tested HIV+ during ANC (%)</v>
+        <v>[CONFIG] RMNCAH - ANC clients with blood pressure measured in third (3rd) trimester (%)</v>
       </c>
       <c r="C84" s="4" t="str">
-        <v>PMTCT testing coverage - tested HIV+ (%)</v>
+        <v>ANC BP measured in 3rd trimester (%)</v>
       </c>
       <c r="D84" s="4" t="str">
-        <v>RMNCAH_PMTCT_TEST_COV_HIV+</v>
+        <v>RMNCAH_ANC_BP_3TRI</v>
       </c>
       <c r="E84" s="4" t="str">
-        <v xml:space="preserve">Percentage of antenatal clients who tested HIV+ during ANC </v>
+        <v>Percentage of antenatal clients with blood pressure measured in third (3rd) trimester.</v>
       </c>
       <c r="F84" s="4" t="str">
-        <v>ANC clients who tested HIV+ during ANC</v>
+        <v>ANC clients with blood pressure measured in third (3rd) trimester</v>
       </c>
       <c r="G84" s="4" t="str">
         <v>ANC 1st visit</v>
@@ -3949,7 +3957,7 @@
         <v>Percentage</v>
       </c>
       <c r="I84" s="4" t="str">
-        <v>2020-04-23</v>
+        <v>2020-04-08</v>
       </c>
       <c r="J84" s="4" t="str">
         <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
@@ -3957,31 +3965,31 @@
     </row>
     <row r="85">
       <c r="A85" s="5" t="str">
-        <v>Gl4aMQhoxS6</v>
+        <v>S6Sz0UU3mPG</v>
       </c>
       <c r="B85" s="5" t="str">
-        <v>[CONFIG] RMNCAH - HIV PMTCT testing coverage rate - Tested HIV- (neg) during ANC (%)</v>
+        <v>[CONFIG] RMNCAH - Newborns resuscitated with bag and mask (%)</v>
       </c>
       <c r="C85" s="5" t="str">
-        <v>PMTCT testing coverage - tested HIV- (%)</v>
+        <v>Newborns resuscitated bag and mask (%)</v>
       </c>
       <c r="D85" s="5" t="str">
-        <v>RMNCAH_PMTCT_TEST_COV_HIV-</v>
+        <v>RMNCAH_NN_RESUS_BM</v>
       </c>
       <c r="E85" s="5" t="str">
-        <v xml:space="preserve">Percentage of antenatal clients who tested HIV- (neg) during ANC </v>
+        <v>Percentage of newborns resuscitated with bag and mask</v>
       </c>
       <c r="F85" s="5" t="str">
-        <v>ANC clients who tested HIV- (neg) during ANC</v>
+        <v>Number of newborns resuscitated with bag and mask</v>
       </c>
       <c r="G85" s="5" t="str">
-        <v>ANC 1st visit</v>
+        <v>Number of live births in facility</v>
       </c>
       <c r="H85" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I85" s="5" t="str">
-        <v>2020-04-23</v>
+        <v>2020-04-08</v>
       </c>
       <c r="J85" s="5" t="str">
         <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
@@ -3989,25 +3997,25 @@
     </row>
     <row r="86">
       <c r="A86" s="4" t="str">
-        <v>lMRhTK17SDQ</v>
+        <v>SPKKzLb5389</v>
       </c>
       <c r="B86" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Institutional delivery rate (%)</v>
+        <v>[CONFIG] RMNCAH - Cervical cancer screening coverage women 15-49y (%)</v>
       </c>
       <c r="C86" s="4" t="str">
-        <v>Institutional delivery rate (%)</v>
+        <v>Cervical cancer screening coverage women 15-49y(%)</v>
       </c>
       <c r="D86" s="4" t="str">
-        <v>RMNCAH_INST_DELIV</v>
+        <v>RMNCAH_SCRN_CERV_CNCR_COV</v>
       </c>
       <c r="E86" s="4" t="str">
-        <v>Percentage of expected deliveries that take place in a health facility</v>
+        <v>Percentage of women of reproductive age (15 to 49 years) who were screened for cervical cancer using any of the following methods: visual Inspection with acetic acid/vinegar (VIA), pap smear, human papilloma virus (HPV) test.</v>
       </c>
       <c r="F86" s="4" t="str">
-        <v>Institutional deliveries</v>
+        <v>Women 15-49y screened for cervical cancer</v>
       </c>
       <c r="G86" s="4" t="str">
-        <v>Estimated number of live births</v>
+        <v>Women of reproductive age (15-49y)</v>
       </c>
       <c r="H86" s="4" t="str">
         <v>Percentage</v>
@@ -4016,132 +4024,132 @@
         <v>2020-04-08</v>
       </c>
       <c r="J86" s="4" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+        <v>RRcDhY8kEtf, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="5" t="str">
-        <v>ZNz5XzwJZK5</v>
+        <v>t3eSNlyXlSt</v>
       </c>
       <c r="B87" s="5" t="str">
-        <v>[CONFIG] RMNCAH - IPTp1 coverage (%)</v>
+        <v xml:space="preserve">[CONFIG] RMNCAH - Death neonatal congenital </v>
       </c>
       <c r="C87" s="5" t="str">
-        <v>IPTp1 coverage (%)</v>
+        <v xml:space="preserve">Death neonatal congenital </v>
       </c>
       <c r="D87" s="5" t="str">
-        <v>RMNCAH_IPTP1_COV</v>
+        <v>RMNCAH_NDCA</v>
       </c>
       <c r="E87" s="5" t="str">
-        <v>Percentage of expected pregnant women who received the first dose of IPTp: Intermittent preventive therapy for malaria during pregnancy</v>
+        <v>Number of Neonatal deaths due to congenital malformations</v>
       </c>
       <c r="F87" s="5" t="str">
-        <v>IPTp 1st dose</v>
+        <v>Death neonatal congenital</v>
       </c>
       <c r="G87" s="5" t="str">
-        <v>Expected pregnancies (pop data) in areas with risk of malaria</v>
+        <v>1</v>
       </c>
       <c r="H87" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I87" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J87" s="5" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="4" t="str">
-        <v>EeIEcimWybJ</v>
+        <v>t63W8x8sDvq</v>
       </c>
       <c r="B88" s="4" t="str">
-        <v>[CONFIG] RMNCAH - IPTp3 coverage (%)</v>
+        <v>[CONFIG] RMNCAH - Death child 5-9y other infections</v>
       </c>
       <c r="C88" s="4" t="str">
-        <v>IPTp3 coverage (%)</v>
+        <v>Death child 5-9y other infections</v>
       </c>
       <c r="D88" s="4" t="str">
-        <v>RMNCAH_IPTP3_COV</v>
+        <v>RMNCAH_DEATH_CHILD_5-9y_OTH_INF</v>
       </c>
       <c r="E88" s="4" t="str">
-        <v>Percentage of expected pregnant women who received the third dose of IPTp: Intermittent preventive therapy for malaria during pregnancy</v>
+        <v>Number of child deaths 5-9 years due to other infections</v>
       </c>
       <c r="F88" s="4" t="str">
-        <v>IPTp 3rd dose</v>
+        <v>Death child 5-9y other infections</v>
       </c>
       <c r="G88" s="4" t="str">
-        <v>Expected pregnancies (pop data) in areas with risk of malaria</v>
+        <v>1</v>
       </c>
       <c r="H88" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I88" s="4" t="str">
-        <v>2020-04-08</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J88" s="4" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="5" t="str">
-        <v>y8YZCvBmBK3</v>
+        <v>ThhTw7jEPsC</v>
       </c>
       <c r="B89" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Newborns on kangaroo mother care (KMC) (%)</v>
+        <v>[CONFIG] RMNCAH - Death child 0-4y tetanus</v>
       </c>
       <c r="C89" s="5" t="str">
-        <v>Newborns KMC (%)</v>
+        <v>Death child 0-4y tetanus</v>
       </c>
       <c r="D89" s="5" t="str">
-        <v>RMNCAH_NN_KMC</v>
+        <v>RMNCAH_DEATH_CHILD_0-4y_TT</v>
       </c>
       <c r="E89" s="5" t="str">
-        <v>Percentage of newborns initiated in KMC (or admitted to KMC unit if separate unit exists)</v>
+        <v>Number of child deaths 0-4 years due to tetanus</v>
       </c>
       <c r="F89" s="5" t="str">
-        <v>Number of newborns on Kangaroo mother care</v>
+        <v>Death child 0-4y tetanus</v>
       </c>
       <c r="G89" s="5" t="str">
-        <v>Number of live births in facility</v>
+        <v>1</v>
       </c>
       <c r="H89" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I89" s="5" t="str">
-        <v>2020-04-08</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J89" s="5" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="4" t="str">
-        <v>S6Sz0UU3mPG</v>
+        <v>tkL7UlM3HGM</v>
       </c>
       <c r="B90" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Newborns resuscitated with bag and mask (%)</v>
+        <v>[CONFIG] RMNCAH - ANC client syphilis screening (%)</v>
       </c>
       <c r="C90" s="4" t="str">
-        <v>Newborns resuscitated bag and mask (%)</v>
+        <v>ANC syphilis screening (%)</v>
       </c>
       <c r="D90" s="4" t="str">
-        <v>RMNCAH_NN_RESUS_BM</v>
+        <v>RMNCAH_ANCSS</v>
       </c>
       <c r="E90" s="4" t="str">
-        <v>Percentage of newborns resuscitated with bag and mask</v>
+        <v>Percentage of antenatal clients screened for syphilis</v>
       </c>
       <c r="F90" s="4" t="str">
-        <v>Number of newborns resuscitated with bag and mask</v>
+        <v>ANC clients screened for syphilis</v>
       </c>
       <c r="G90" s="4" t="str">
-        <v>Number of live births in facility</v>
+        <v>ANC 1st visit</v>
       </c>
       <c r="H90" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I90" s="4" t="str">
-        <v>2020-04-08</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J90" s="4" t="str">
         <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
@@ -4149,63 +4157,63 @@
     </row>
     <row r="91">
       <c r="A91" s="5" t="str">
-        <v>illIO5sBPjx</v>
+        <v>U1Y5H3ruLPD</v>
       </c>
       <c r="B91" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Newborns treated for neonatal infection (%)</v>
+        <v>[CONFIG] RMNCAH - Death child 0-4y prematurity</v>
       </c>
       <c r="C91" s="5" t="str">
-        <v>Newborns treated for neonatal infection (%)</v>
+        <v>Death child 0-4y prematurity</v>
       </c>
       <c r="D91" s="5" t="str">
-        <v>RMNCAH_NN_TRT_INFECTN</v>
+        <v>RMNCAH_DEATH_CHILD_0-4y_PRM</v>
       </c>
       <c r="E91" s="5" t="str">
-        <v>Percentage of births in health facility that are pre-term (less than 37 weeks gestation)</v>
+        <v>Number of child deaths 0-4 years due to prematurity</v>
       </c>
       <c r="F91" s="5" t="str">
-        <v>Number of newborns treated for neonatal infection</v>
+        <v>Death child 0-4y prematurity</v>
       </c>
       <c r="G91" s="5" t="str">
-        <v>Number of live births in facility</v>
+        <v>1</v>
       </c>
       <c r="H91" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I91" s="5" t="str">
-        <v>2020-04-08</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J91" s="5" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="4" t="str">
-        <v>eM54myJGX6k</v>
+        <v>u4MVw6vtaVq</v>
       </c>
       <c r="B92" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Normal delivery rate (%)</v>
+        <v>[CONFIG] RMNCAH - ANC 8th visit coverage (%)</v>
       </c>
       <c r="C92" s="4" t="str">
-        <v>Normal delivery rate (%)</v>
+        <v>ANC 8th visit coverage (%)</v>
       </c>
       <c r="D92" s="4" t="str">
-        <v>RMNCAH_ND</v>
+        <v>RMNCAH_ANC8_COV</v>
       </c>
       <c r="E92" s="4" t="str">
-        <v>Percentage of deliveries in health facilities that are normal (not assisted or by C/S)</v>
+        <v>Percentage of expected pregnant women who had 8 ANC visits.</v>
       </c>
       <c r="F92" s="4" t="str">
-        <v>Delivery in facility - Normal</v>
+        <v>ANC 8th visit</v>
       </c>
       <c r="G92" s="4" t="str">
-        <v>Delivery in facility</v>
+        <v>Expected pregnancies (pop data)</v>
       </c>
       <c r="H92" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I92" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J92" s="4" t="str">
         <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
@@ -4213,470 +4221,471 @@
     </row>
     <row r="93">
       <c r="A93" s="5" t="str">
-        <v>X1gqmqv6gvT</v>
+        <v>uHg0RQeJNpw</v>
       </c>
       <c r="B93" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Pneumonia diagnosis in children 0-9 years with ARI (%)</v>
+        <v>[CONFIG] RMNCAH - ANC TT2 (tetanus) coverage (%)</v>
       </c>
       <c r="C93" s="5" t="str">
-        <v>Pneumonia diagnosis 0-9y (%)</v>
+        <v>ANC TT2 coverage (%)</v>
       </c>
       <c r="D93" s="5" t="str">
-        <v>RMNCAH_PND_ARI</v>
+        <v>RMNCAH_TT2_COV</v>
       </c>
       <c r="E93" s="5" t="str">
-        <v>Percentage of children with symptoms of acute respiratory illness (ARI) correctly diagnosed with pneumonia.</v>
+        <v>Percentage of antenatal clients who received at least 2 Tetanus Toxoid doses</v>
       </c>
       <c r="F93" s="5" t="str">
-        <v>Children 0-9 years diagnosed with pneumonia</v>
+        <v>TT2 doses given to pregnant women</v>
       </c>
       <c r="G93" s="5" t="str">
-        <v>Children 0-9 years with symptoms of acute respiratory illness (ARI)</v>
+        <v>Expected pregnancies (pop data)</v>
       </c>
       <c r="H93" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I93" s="5" t="str">
-        <v>2020-04-07</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J93" s="5" t="str">
-        <v>uDy8xg2ofrw</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="4" t="str">
-        <v>wwtcF9fypyQ</v>
+        <v>UX5BdEApNEI</v>
       </c>
       <c r="B94" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Pneumonia number diagnosed in children 0-4 years</v>
+        <v>[CONFIG] RMNCAH - Diarrhoea treatment in children 0-9 years (%)</v>
       </c>
       <c r="C94" s="4" t="str">
-        <v>Pneumonia diagnosis 0-4y</v>
+        <v>Diarrhoea treatment 0-9y (%)</v>
       </c>
       <c r="D94" s="4" t="str">
-        <v>RMNCAH_PND_0-4</v>
+        <v>RMNCAH_DT</v>
       </c>
       <c r="E94" s="4" t="str">
-        <v>Number of children aged 0-4 years correctly diagnosed with pneumonia.</v>
+        <v>Percentage of children diagnosed with diarrhoea who received treatment.</v>
       </c>
       <c r="F94" s="4" t="str">
-        <v>Children diagnosed with pneumonia 0-4 years</v>
+        <v>Children 0-9 years treated for diarrhoea</v>
       </c>
       <c r="G94" s="4" t="str">
-        <v>1</v>
+        <v>Children 0-9 years diagnosed with diarrhoea</v>
       </c>
       <c r="H94" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I94" s="4" t="str">
-        <v>2020-04-13</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J94" s="4" t="str">
-        <v>uDy8xg2ofrw</v>
+        <v>Qc4lDXPFGh7, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="5" t="str">
-        <v>LRufo0zqmvg</v>
+        <v>VFZAVTULTSd</v>
       </c>
       <c r="B95" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Pneumonia number diagnosed in children 5-9 years</v>
+        <v>[CONFIG] RMNCAH - Pneumonia treated with Amoxicillin in children 0-9 years (%)</v>
       </c>
       <c r="C95" s="5" t="str">
-        <v>Pneumonia diagnosis 5-9y</v>
+        <v>Pneumonia treated with Amoxicillin 0-9y (%)</v>
       </c>
       <c r="D95" s="5" t="str">
-        <v>RMNCAH_PND_5-9</v>
+        <v>RMNCAH_PNT_AMOX</v>
       </c>
       <c r="E95" s="5" t="str">
-        <v>Number of children aged 5-9 years correctly diagnosed with pneumonia.</v>
+        <v>Percentage of children correctly diagnosed with pneumonia who received treatment with Amoxicillin (either dispersed tablet or oral syrup)</v>
       </c>
       <c r="F95" s="5" t="str">
-        <v>Children diagnosed with pneumonia 5-9 years</v>
+        <v>Children 0-9 years treated for pneumonia with amoxicillin dispersed tablet or oral syrup</v>
       </c>
       <c r="G95" s="5" t="str">
-        <v>1</v>
+        <v>Children 0-9 years diagnosed with pneumonia</v>
       </c>
       <c r="H95" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I95" s="5" t="str">
-        <v>2020-04-13</v>
+        <v>2020-04-07</v>
       </c>
       <c r="J95" s="5" t="str">
-        <v>uDy8xg2ofrw</v>
+        <v>Qc4lDXPFGh7, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="4" t="str">
-        <v>OjGUSxKM05J</v>
+        <v>Vgr5AiRKANz</v>
       </c>
       <c r="B96" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Pneumonia treated with Amoxicillin dispersed tablet in children 0-9 years (%)</v>
+        <v xml:space="preserve">[CONFIG] RMNCAH - ANC 4th visit </v>
       </c>
       <c r="C96" s="4" t="str">
-        <v>Pneumonia treated with Amoxicillin tablet 0-9y (%)</v>
+        <v xml:space="preserve">ANC 4th visit </v>
       </c>
       <c r="D96" s="4" t="str">
-        <v>RMNCAH_PNT_AMOX_TAB</v>
+        <v>RMNCAH_ANC_4TH</v>
       </c>
       <c r="E96" s="4" t="str">
-        <v>Percentage of children correctly diagnosed with pneumonia who received treatment with Amoxicillin dispersed tablet</v>
+        <v/>
       </c>
       <c r="F96" s="4" t="str">
-        <v>Children 0-9 years treated for pneumonia with amoxicillin dispersed tablet</v>
+        <v>ANC 4th visit</v>
       </c>
       <c r="G96" s="4" t="str">
-        <v>Children 0-9 years diagnosed with pneumonia</v>
+        <v>1</v>
       </c>
       <c r="H96" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I96" s="4" t="str">
-        <v>2020-04-07</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J96" s="4" t="str">
-        <v>uDy8xg2ofrw, Qc4lDXPFGh7</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="5" t="str">
-        <v>VFZAVTULTSd</v>
+        <v>vhqt3xIZ5Ut</v>
       </c>
       <c r="B97" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Pneumonia treated with Amoxicillin in children 0-9 years (%)</v>
+        <v>[CONFIG] RMNCAH - Death child 0-4y all causes</v>
       </c>
       <c r="C97" s="5" t="str">
-        <v>Pneumonia treated with Amoxicillin 0-9y (%)</v>
+        <v>Death child 0-4y all causes</v>
       </c>
       <c r="D97" s="5" t="str">
-        <v>RMNCAH_PNT_AMOX</v>
+        <v>RMNCAH_DEATH_CHILD_0-4y_ALL</v>
       </c>
       <c r="E97" s="5" t="str">
-        <v>Percentage of children correctly diagnosed with pneumonia who received treatment with Amoxicillin (either dispersed tablet or oral syrup)</v>
+        <v>Number of child deaths 0-4 years due to all causes</v>
       </c>
       <c r="F97" s="5" t="str">
-        <v>Children 0-9 years treated for pneumonia with amoxicillin dispersed tablet or oral syrup</v>
+        <v>Death child 0-4y all causes</v>
       </c>
       <c r="G97" s="5" t="str">
-        <v>Children 0-9 years diagnosed with pneumonia</v>
+        <v>1</v>
       </c>
       <c r="H97" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I97" s="5" t="str">
-        <v>2020-04-07</v>
+        <v>2020-04-27</v>
       </c>
       <c r="J97" s="5" t="str">
-        <v>uDy8xg2ofrw, Qc4lDXPFGh7</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="4" t="str">
-        <v>ids6pWvZmh3</v>
+        <v>wbAmtpfMvJ8</v>
       </c>
       <c r="B98" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Pneumonia treated with Amoxicillin oral syrup in children 0-9 years (%)</v>
+        <v>[CONFIG] RMNCAH - Postpartum contraceptive acceptors - condom (%)</v>
       </c>
       <c r="C98" s="4" t="str">
-        <v>Pneumonia treated with Amoxicillin syrup 0-9y (%)</v>
+        <v>Postpartum contracept condom (%)</v>
       </c>
       <c r="D98" s="4" t="str">
-        <v>RMNCAH_PNT_AMOX_OS</v>
+        <v>RMNCAH_FPPP_CON</v>
       </c>
       <c r="E98" s="4" t="str">
-        <v>Percentage of children correctly diagnosed with pneumonia who received treatment with Amoxicillin oral syrup</v>
+        <v>Percentage of postpartum women delivering in facility initiating condom as contraceptive method.</v>
       </c>
       <c r="F98" s="4" t="str">
-        <v>Children 0-9 years treated for pneumonia with amoxicillin oral syrup</v>
+        <v>Postpartum woman initiated Condom before discharge after facility delivery</v>
       </c>
       <c r="G98" s="4" t="str">
-        <v>Children 0-9 years diagnosed with pneumonia</v>
+        <v xml:space="preserve"> Delivery in facility</v>
       </c>
       <c r="H98" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I98" s="4" t="str">
-        <v>2020-04-07</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J98" s="4" t="str">
-        <v>uDy8xg2ofrw, Qc4lDXPFGh7</v>
+        <v>RRcDhY8kEtf, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="5" t="str">
-        <v>qRfZ7sdScVv</v>
+        <v>Whob66sPjEE</v>
       </c>
       <c r="B99" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Pneumonia treated with non-antibiotic medication in children 0-9 years (%)</v>
+        <v>[CONFIG] RMNCAH - Death child 0-4y congenital anomalies</v>
       </c>
       <c r="C99" s="5" t="str">
-        <v>Pneumonia treated other medication 0-9y (%)</v>
+        <v>Death child 0-4y congenital anomalies</v>
       </c>
       <c r="D99" s="5" t="str">
-        <v>RMNCAH_PNT_OTHER</v>
+        <v>RMNCAH_DEATH_CHILD_0-4y_CONG</v>
       </c>
       <c r="E99" s="5" t="str">
-        <v>Percentage of children correctly diagnosed with pneumonia who received treatment with other (non-antibiotic) medication</v>
+        <v>Number of child deaths 0-4 years due to congenital anomalies</v>
       </c>
       <c r="F99" s="5" t="str">
-        <v>Children 0-9 years treated for pneumonia with other medication than antibiotics</v>
+        <v>Death child 0-4y congenital anomalies</v>
       </c>
       <c r="G99" s="5" t="str">
-        <v>Children 0-9 years diagnosed with pneumonia</v>
+        <v>1</v>
       </c>
       <c r="H99" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I99" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J99" s="5" t="str">
-        <v>uDy8xg2ofrw, Qc4lDXPFGh7</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="4" t="str">
-        <v>oCvwO2UvZD1</v>
+        <v>wwtcF9fypyQ</v>
       </c>
       <c r="B100" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Pneumonia treated with other antibiotic in children 0-9 years (%)</v>
+        <v>[CONFIG] RMNCAH - Pneumonia number diagnosed in children 0-4 years</v>
       </c>
       <c r="C100" s="4" t="str">
-        <v>Pneumonia treated with other antibiotic 0-9y (%)</v>
+        <v>Pneumonia diagnosis 0-4y</v>
       </c>
       <c r="D100" s="4" t="str">
-        <v>RMNCAH_PNT_OAB</v>
+        <v>RMNCAH_PND_0-4</v>
       </c>
       <c r="E100" s="4" t="str">
-        <v>Percentage of children correctly diagnosed with pneumonia who received treatment with an antibiotic other than amoxicillin.</v>
+        <v>Number of children aged 0-4 years correctly diagnosed with pneumonia.</v>
       </c>
       <c r="F100" s="4" t="str">
-        <v>Children 0-9 years treated for pneumonia with other antibiotic than amoxicillin</v>
+        <v>Children diagnosed with pneumonia 0-4 years</v>
       </c>
       <c r="G100" s="4" t="str">
-        <v>Children 0-9 years diagnosed with pneumonia</v>
+        <v>1</v>
       </c>
       <c r="H100" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I100" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-13</v>
       </c>
       <c r="J100" s="4" t="str">
-        <v>uDy8xg2ofrw, Qc4lDXPFGh7</v>
+        <v>uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="5" t="str">
-        <v>DWO9EyfG3Fl</v>
+        <v>X1gqmqv6gvT</v>
       </c>
       <c r="B101" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Pneumonia treatment in children 0-9 years (%)</v>
+        <v>[CONFIG] RMNCAH - Pneumonia diagnosis in children 0-9 years with ARI (%)</v>
       </c>
       <c r="C101" s="5" t="str">
-        <v>Pneumonia treatment 0-9y (%)</v>
+        <v>Pneumonia diagnosis 0-9y (%)</v>
       </c>
       <c r="D101" s="5" t="str">
-        <v>RMNCAH_PNT</v>
+        <v>RMNCAH_PND_ARI</v>
       </c>
       <c r="E101" s="5" t="str">
-        <v>Percentage of children correctly diagnosed with pneumonia who received treatment.</v>
+        <v>Percentage of children with symptoms of acute respiratory illness (ARI) correctly diagnosed with pneumonia.</v>
       </c>
       <c r="F101" s="5" t="str">
-        <v>Children 0-9 years treated for pneumonia</v>
+        <v>Children 0-9 years diagnosed with pneumonia</v>
       </c>
       <c r="G101" s="5" t="str">
-        <v>Children 0-9 years diagnosed with pneumonia</v>
+        <v>Children 0-9 years with symptoms of acute respiratory illness (ARI)</v>
       </c>
       <c r="H101" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I101" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-07</v>
       </c>
       <c r="J101" s="5" t="str">
-        <v>uDy8xg2ofrw, Qc4lDXPFGh7</v>
+        <v>uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="4" t="str">
-        <v>ePPf0F5klqt</v>
+        <v>xGXryTKcNY2</v>
       </c>
       <c r="B102" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Postnatal care mother (%)</v>
+        <v>[CONFIG] RMNCAH - HIV PMTCT testing coverage rate - Known HIV+ at ANC entry (%)</v>
       </c>
       <c r="C102" s="4" t="str">
-        <v>Postnatal care mother (%)</v>
+        <v>PMTCT testing coverage - known HIV+ (%)</v>
       </c>
       <c r="D102" s="4" t="str">
-        <v>RMNCAH_PPMV</v>
+        <v>RMNCAH_PMTCT_TEST_COV_KNWN_HIV+</v>
       </c>
       <c r="E102" s="4" t="str">
-        <v>Percentage of women with postnatal check. Note: The numerator includes both women who gave birth in the health facility and those who gave birth outside the health facility.</v>
+        <v>Percentage of antenatal clients with known HIV+ status at ANC entry</v>
       </c>
       <c r="F102" s="4" t="str">
-        <v>Postpartum woman with at least 1 PNC visit</v>
+        <v>ANC clients with known HIV+ status</v>
       </c>
       <c r="G102" s="4" t="str">
-        <v>Delivery in facility</v>
+        <v>ANC 1st visit</v>
       </c>
       <c r="H102" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I102" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-23</v>
       </c>
       <c r="J102" s="4" t="str">
-        <v>uDy8xg2ofrw, NBoBsBLsTOW</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="5" t="str">
-        <v>o63QMqOyYg7</v>
+        <v>Xn5C1TDrCkr</v>
       </c>
       <c r="B103" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Postnatal care mother on time (%)</v>
+        <v>[CONFIG] RMNCAH - ANC clients with blood pressure measured (%)</v>
       </c>
       <c r="C103" s="5" t="str">
-        <v>PNC mother timely (%)</v>
+        <v>ANC BP measured (%)</v>
       </c>
       <c r="D103" s="5" t="str">
-        <v>RMNCAH_PPMTV</v>
+        <v>RMNCAH_ANC_BP</v>
       </c>
       <c r="E103" s="5" t="str">
-        <v>Percentage of women with timely postnatal check. Timely refers to national guidelines.</v>
+        <v>Percentage of antenatal clients with blood pressure measured.</v>
       </c>
       <c r="F103" s="5" t="str">
-        <v>Postpartum woman timely 1st PNC visit</v>
+        <v>ANC clients with blood pressure measured</v>
       </c>
       <c r="G103" s="5" t="str">
-        <v>Delivery in facility</v>
+        <v>ANC 1st visit</v>
       </c>
       <c r="H103" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I103" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-08</v>
       </c>
       <c r="J103" s="5" t="str">
-        <v>uDy8xg2ofrw, NBoBsBLsTOW</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="4" t="str">
-        <v>KwM3KUO7kg4</v>
+        <v>XoEBUcTy62Q</v>
       </c>
       <c r="B104" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Postnatal care newborns (%)</v>
+        <v>[CONFIG] RMNCAH - Gynaecology abortion care</v>
       </c>
       <c r="C104" s="4" t="str">
-        <v>Postnatal care newborns (%)</v>
+        <v>Gynaecology abortion care</v>
       </c>
       <c r="D104" s="4" t="str">
-        <v>RMNCAH_PPNBV</v>
+        <v>RMNCAH_GYN_ABORT_CARE</v>
       </c>
       <c r="E104" s="4" t="str">
-        <v>Percentage of newborns with postnatal check. Note: The numerator includes both children born in the health facility and those born outside the health facility.</v>
+        <v>Number of women presenting for gynecological indications related to abortion</v>
       </c>
       <c r="F104" s="4" t="str">
-        <v>Newborn with at least 1 PNC visit</v>
+        <v>Number of women presenting for gynecological indications related to abortion</v>
       </c>
       <c r="G104" s="4" t="str">
-        <v>Live births in facility</v>
+        <v>1</v>
       </c>
       <c r="H104" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I104" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-23</v>
       </c>
       <c r="J104" s="4" t="str">
-        <v>uDy8xg2ofrw, NBoBsBLsTOW</v>
+        <v>RRcDhY8kEtf, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="5" t="str">
-        <v>bFFptiqjRAk</v>
+        <v>XXDXVGzvSx1</v>
       </c>
       <c r="B105" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Postnatal care newborns on time (%)</v>
+        <v>[CONFIG] RMNCAH - Assisted delivery rate in institutional deliveries (%)</v>
       </c>
       <c r="C105" s="5" t="str">
-        <v>Postnatal care newborns timely (%)</v>
+        <v>Assisted institutional delivery rate (%)</v>
       </c>
       <c r="D105" s="5" t="str">
-        <v>RMNCAH_PPNBTV</v>
+        <v>RMNCAH_AD</v>
       </c>
       <c r="E105" s="5" t="str">
-        <v>Percentage of newborns with timely postnatal check according to national guidelines.</v>
+        <v>Percentage of deliveries in health facilities that are assisted (forceps or vacuum)</v>
       </c>
       <c r="F105" s="5" t="str">
-        <v>Postpartum neonate timely 1st PNC visit</v>
+        <v>Delivery in facility - Assisted (Vacuum or forceps)</v>
       </c>
       <c r="G105" s="5" t="str">
-        <v>Live births in facility</v>
+        <v>Delivery in facility</v>
       </c>
       <c r="H105" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I105" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J105" s="5" t="str">
-        <v>uDy8xg2ofrw, NBoBsBLsTOW</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="4" t="str">
-        <v>wbAmtpfMvJ8</v>
+        <v>y8YZCvBmBK3</v>
       </c>
       <c r="B106" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Postpartum contraceptive acceptors - condom (%)</v>
+        <v>[CONFIG] RMNCAH - Newborns on kangaroo mother care (KMC) (%)</v>
       </c>
       <c r="C106" s="4" t="str">
-        <v>Postpartum contracept condom (%)</v>
+        <v>Newborns KMC (%)</v>
       </c>
       <c r="D106" s="4" t="str">
-        <v>RMNCAH_FPPP_CON</v>
+        <v>RMNCAH_NN_KMC</v>
       </c>
       <c r="E106" s="4" t="str">
-        <v>Percentage of postpartum women delivering in facility initiating condom as contraceptive method.</v>
+        <v>Percentage of newborns initiated in KMC (or admitted to KMC unit if separate unit exists)</v>
       </c>
       <c r="F106" s="4" t="str">
-        <v>Postpartum woman initiated Condom before discharge after facility delivery</v>
+        <v>Number of newborns on Kangaroo mother care</v>
       </c>
       <c r="G106" s="4" t="str">
-        <v xml:space="preserve"> Delivery in facility</v>
+        <v>Number of live births in facility</v>
       </c>
       <c r="H106" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I106" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-08</v>
       </c>
       <c r="J106" s="4" t="str">
-        <v>uDy8xg2ofrw, RRcDhY8kEtf</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+      </c>
+    </row>
+    <row r="107" xml:space="preserve">
       <c r="A107" s="5" t="str">
-        <v>KifLPgn8kkk</v>
+        <v>YBjvDwAKAgZ</v>
       </c>
       <c r="B107" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Postpartum contraceptive acceptors - implant (%)</v>
+        <v>[CONFIG] RMNCAH - Postpartum family planning acceptors (%)</v>
       </c>
       <c r="C107" s="5" t="str">
-        <v>Postpartum contracept implant (%)</v>
+        <v>Postpartum FP acceptors</v>
       </c>
       <c r="D107" s="5" t="str">
-        <v>RMNCAH_FPPP_IMPL</v>
-      </c>
-      <c r="E107" s="5" t="str">
-        <v>Percentage of postpartum women delivering in facility initiating implant as contraceptive method.</v>
+        <v>RMNCAH_FPPP</v>
+      </c>
+      <c r="E107" s="5" t="str" xml:space="preserve">
+        <v xml:space="preserve">Percentage of postpartum women delivering in facility initiating a contraceptive method before discharge. 
+“Initiated" refers to women who either leave with an FP method or intend to begin a method that day (e.g. fertility awareness method). It combines both those women who “leave with” a method and those who “accept” a method prior to discharge or leaving the facility.</v>
       </c>
       <c r="F107" s="5" t="str">
-        <v>Postpartum woman initiated implant before discharge after facility delivery</v>
+        <v>Postpartum woman initiated contraceptive method before discharge</v>
       </c>
       <c r="G107" s="5" t="str">
         <v xml:space="preserve"> Delivery in facility</v>
@@ -4685,232 +4694,231 @@
         <v>Percentage</v>
       </c>
       <c r="I107" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J107" s="5" t="str">
-        <v>uDy8xg2ofrw, RRcDhY8kEtf</v>
+        <v>RRcDhY8kEtf, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="4" t="str">
-        <v>Gjex4LrpKbB</v>
+        <v>ylXbHIzTg7x</v>
       </c>
       <c r="B108" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Postpartum contraceptive acceptors - injectable (%)</v>
+        <v>[CONFIG] RMNCAH - Birth still rate in facility (%)</v>
       </c>
       <c r="C108" s="4" t="str">
-        <v>Postpartum contracept injectable (%)</v>
+        <v>Still birth rate (%)</v>
       </c>
       <c r="D108" s="4" t="str">
-        <v>RMNCAH_FPPP_INJECT</v>
+        <v>RMNCAH_SB</v>
       </c>
       <c r="E108" s="4" t="str">
-        <v>Percentage of postpartum women delivering in facility initiating injectable as contraceptive method.</v>
+        <v>Stillbirth as a percentage of all births in health facilities. (Baby born with no sign of life and weighing at least 1000g or after 28 weeks gestation)</v>
       </c>
       <c r="F108" s="4" t="str">
-        <v>Postpartum woman initiated injectable before discharge after facility delivery</v>
+        <v>Still births in facility</v>
       </c>
       <c r="G108" s="4" t="str">
-        <v xml:space="preserve"> Delivery in facility</v>
+        <v>Live and still births in facility</v>
       </c>
       <c r="H108" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I108" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J108" s="4" t="str">
-        <v>uDy8xg2ofrw, RRcDhY8kEtf</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="5" t="str">
-        <v>oshwEXipmih</v>
+        <v>YQF5aH1USqa</v>
       </c>
       <c r="B109" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Postpartum contraceptive acceptors - IUD (%)</v>
+        <v>[CONFIG] RMNCAH - Death neonatal tetanus</v>
       </c>
       <c r="C109" s="5" t="str">
-        <v>Postpartum contracept IUD (%)</v>
+        <v>Death neonatal tetanus</v>
       </c>
       <c r="D109" s="5" t="str">
-        <v>RMNCAH_FPPP_IUD</v>
+        <v>RMNCAH_DEATH_NEO_TT</v>
       </c>
       <c r="E109" s="5" t="str">
-        <v>Percentage of postpartum women delivering in facility initiating IUD as contraceptive method.</v>
+        <v>Number of Neonatal deaths due to tetanus</v>
       </c>
       <c r="F109" s="5" t="str">
-        <v>Postpartum woman initiated IUD before discharge after facility delivery</v>
+        <v>Death neonatal tetanus</v>
       </c>
       <c r="G109" s="5" t="str">
-        <v xml:space="preserve"> Delivery in facility</v>
+        <v>1</v>
       </c>
       <c r="H109" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I109" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J109" s="5" t="str">
-        <v>uDy8xg2ofrw, RRcDhY8kEtf</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="4" t="str">
-        <v>j5NrAAfsbsz</v>
+        <v>Z2Df1NeNaEj</v>
       </c>
       <c r="B110" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Postpartum contraceptive acceptors - other method (%)</v>
+        <v>[CONFIG] RMNCAH - Diarrhoea treated with ORS and zinc in children 0-9 years (%)</v>
       </c>
       <c r="C110" s="4" t="str">
-        <v>Postpartum contracept other (%)</v>
+        <v>Diarrhoea treated ORS+Zinc 0-9y (%)</v>
       </c>
       <c r="D110" s="4" t="str">
-        <v>RMNCAH_FPPP_OTHER</v>
+        <v>RMNCAH_DT_ORSZINC</v>
       </c>
       <c r="E110" s="4" t="str">
-        <v>Percentage of postpartum women delivering in facility initiating other contraceptive method</v>
+        <v>Percentage of children diagnosed with diarrhoea who received treatment with ORS and Zinc.</v>
       </c>
       <c r="F110" s="4" t="str">
-        <v>Postpartum woman initiated other contraceptive method before discharge after facility delivery</v>
+        <v>Children 0-9 years treated for diarrhoea with ORS</v>
       </c>
       <c r="G110" s="4" t="str">
-        <v xml:space="preserve"> Delivery in facility</v>
+        <v>Children 0-9 years diagnosed with diarrhoea</v>
       </c>
       <c r="H110" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I110" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J110" s="4" t="str">
-        <v>uDy8xg2ofrw, RRcDhY8kEtf</v>
+        <v>Qc4lDXPFGh7, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="5" t="str">
-        <v>kQjyaO9FBtb</v>
+        <v>ZbMLAo7LTuz</v>
       </c>
       <c r="B111" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Postpartum contraceptive acceptors - pill (%)</v>
+        <v>[CONFIG] RMNCAH - Death child 5-9y non communicable diseases (NCDs)</v>
       </c>
       <c r="C111" s="5" t="str">
-        <v>Postpartum contracept pil (%)</v>
+        <v>Death child 5-9y NCD</v>
       </c>
       <c r="D111" s="5" t="str">
-        <v>RMNCAH_FPPP_PILL</v>
+        <v>RMNCAH_DEATH_CHILD_5-9y_NCD</v>
       </c>
       <c r="E111" s="5" t="str">
-        <v>Percentage of postpartum women delivering in facility initiating pill as contraceptive method.</v>
+        <v>Number of child deaths 5-9 years due to non communicable diseases (NCDs)</v>
       </c>
       <c r="F111" s="5" t="str">
-        <v>Postpartum woman initiated contraceptive pill before discharge after facility delivery</v>
+        <v>Death child 5-9y non-communicable diseases (NCD)</v>
       </c>
       <c r="G111" s="5" t="str">
-        <v xml:space="preserve"> Delivery in facility</v>
+        <v>1</v>
       </c>
       <c r="H111" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I111" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-27</v>
       </c>
       <c r="J111" s="5" t="str">
-        <v>uDy8xg2ofrw, RRcDhY8kEtf</v>
-      </c>
-    </row>
-    <row r="112" xml:space="preserve">
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
+      </c>
+    </row>
+    <row r="112">
       <c r="A112" s="4" t="str">
-        <v>YBjvDwAKAgZ</v>
+        <v>zJnHulDK3si</v>
       </c>
       <c r="B112" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Postpartum family planning acceptors (%)</v>
+        <v>[CONFIG] RMNCAH - Death neonatal sepsis or meningitis</v>
       </c>
       <c r="C112" s="4" t="str">
-        <v>Postpartum FP acceptors</v>
+        <v>Death neonatal sepsis or meningitis</v>
       </c>
       <c r="D112" s="4" t="str">
-        <v>RMNCAH_FPPP</v>
-      </c>
-      <c r="E112" s="4" t="str" xml:space="preserve">
-        <v xml:space="preserve">Percentage of postpartum women delivering in facility initiating a contraceptive method before discharge. 
-“Initiated" refers to women who either leave with an FP method or intend to begin a method that day (e.g. fertility awareness method). It combines both those women who “leave with” a method and those who “accept” a method prior to discharge or leaving the facility.</v>
+        <v>RMNCAH_DEATH_NEO_SEPSS</v>
+      </c>
+      <c r="E112" s="4" t="str">
+        <v>Number of Neonatal deaths due to sepsis or meningitis</v>
       </c>
       <c r="F112" s="4" t="str">
-        <v>Postpartum woman initiated contraceptive method before discharge</v>
+        <v>Death neonatal sepsis or meningitis</v>
       </c>
       <c r="G112" s="4" t="str">
-        <v xml:space="preserve"> Delivery in facility</v>
+        <v>1</v>
       </c>
       <c r="H112" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I112" s="4" t="str">
-        <v>2020-04-08</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J112" s="4" t="str">
-        <v>uDy8xg2ofrw, RRcDhY8kEtf</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="5" t="str">
-        <v>gnhcFIap1vN</v>
+        <v>zlR4t4qRTZR</v>
       </c>
       <c r="B113" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Postpartum received family planning counselling (%)</v>
+        <v>[CONFIG] RMNCAH - Death child 0-4y pneumonia</v>
       </c>
       <c r="C113" s="5" t="str">
-        <v>Postpartum FP counselling</v>
+        <v>Child death 0-4y pneumonia</v>
       </c>
       <c r="D113" s="5" t="str">
-        <v>RMNCAH_PP_FP_COUNS</v>
+        <v>RMNCAH_DEATH_CHILD_0-4y_PNEU</v>
       </c>
       <c r="E113" s="5" t="str">
-        <v>Percentage of women delivering at facility counseled on postpartum family planning prior to discharge</v>
+        <v>Number of child deaths 0-4 years due to pneumonia</v>
       </c>
       <c r="F113" s="5" t="str">
-        <v>Postpartum woman received FP counseling before discharge</v>
+        <v>Death child 0-4y pneumonia</v>
       </c>
       <c r="G113" s="5" t="str">
-        <v xml:space="preserve"> Delivery in facility</v>
+        <v>1</v>
       </c>
       <c r="H113" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I113" s="5" t="str">
-        <v>2020-04-08</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J113" s="5" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM, RRcDhY8kEtf</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="4" t="str">
-        <v>b4e4QZfBe5x</v>
+        <v>ZNz5XzwJZK5</v>
       </c>
       <c r="B114" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Uterotonic for prevention of post-partum haemorrhage (%)</v>
+        <v>[CONFIG] RMNCAH - IPTp1 coverage (%)</v>
       </c>
       <c r="C114" s="4" t="str">
-        <v>Uterotonic for PPH (%)</v>
+        <v>IPTp1 coverage (%)</v>
       </c>
       <c r="D114" s="4" t="str">
-        <v>RMNCAH_UPPH</v>
+        <v>RMNCAH_IPTP1_COV</v>
       </c>
       <c r="E114" s="4" t="str">
-        <v>Percentage of women who gave birth in a facility who received a prophylactic uterotonic immediately after birth for prevention of postpartum hemorrhage. "Immediately" ideally refers to within one minute.</v>
+        <v>Percentage of expected pregnant women who received the first dose of IPTp: Intermittent preventive therapy for malaria during pregnancy</v>
       </c>
       <c r="F114" s="4" t="str">
-        <v>Received a prophylactic uterotonic immediately after birth</v>
+        <v>IPTp 1st dose</v>
       </c>
       <c r="G114" s="4" t="str">
-        <v>Delivery in facility</v>
+        <v>Expected pregnancies (pop data) in areas with risk of malaria</v>
       </c>
       <c r="H114" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I114" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J114" s="4" t="str">
         <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
@@ -4918,54 +4926,54 @@
     </row>
     <row r="115">
       <c r="A115" s="5" t="str">
-        <v>iRuJCkcGDov</v>
+        <v>Zr4GSWRPQaM</v>
       </c>
       <c r="B115" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Women with severe pre-eclampsia/ eclamspsia treated with loading dose of MgSO4 (%)</v>
+        <v>[CONFIG] RMNCAH - Death neonatal unclassified</v>
       </c>
       <c r="C115" s="5" t="str">
-        <v>Pre-eclampsia/ eclamspsia treated MgSO4</v>
+        <v>Death neonatal unclassified</v>
       </c>
       <c r="D115" s="5" t="str">
-        <v>RMNCAH_ECLAMP_MgSO4</v>
+        <v>RMNCAH_DEATH_NEO_UNCLASS</v>
       </c>
       <c r="E115" s="5" t="str">
-        <v>Percentage of women with severe pre-eclampsia/eclampsia who receive the initial dose of MgSO4 (loading dose) in health facility</v>
+        <v>Number of Neonatal deaths unclassified</v>
       </c>
       <c r="F115" s="5" t="str">
-        <v>Number of women with severe pre-eclampsia/eclampsia who receive the initial dose of MgSO4</v>
+        <v>Death neonatal unclassified</v>
       </c>
       <c r="G115" s="5" t="str">
-        <v xml:space="preserve"> Delivery in facility</v>
+        <v>1</v>
       </c>
       <c r="H115" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I115" s="5" t="str">
-        <v>2020-04-23</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J115" s="5" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="4" t="str">
-        <v>Ehw00wViRfW</v>
+        <v>zXhn9sH8oXD</v>
       </c>
       <c r="B116" s="4" t="str">
-        <v>[CONFIG] RMNCAH TB - Notified TB cases (new and relapse, all forms) aged 0-4</v>
+        <v>[CONFIG] RMNCAH - Death child 0-4y non communicable diseases (NCDs)</v>
       </c>
       <c r="C116" s="4" t="str">
-        <v>TB notification 0-4</v>
+        <v>Death child 0-4y NCD</v>
       </c>
       <c r="D116" s="4" t="str">
-        <v>RMNCAH_TB_C_NEWREL_04</v>
+        <v>RMNCAH_DEATH_CHILD_0-4y_NCD</v>
       </c>
       <c r="E116" s="4" t="str">
-        <v>Number of TB cases aged 0-4 in given year (new and relapse, all forms)</v>
+        <v>Number of child deaths 0-4years due to non communicable diseases (NCDs)</v>
       </c>
       <c r="F116" s="4" t="str">
-        <v>Number of TB cases aged 0-4 (new and relapse only)</v>
+        <v>Death child 0-4y non communicable diseases</v>
       </c>
       <c r="G116" s="4" t="str">
         <v>1</v>
@@ -4974,10 +4982,10 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I116" s="4" t="str">
-        <v>2020-04-23</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J116" s="4" t="str">
-        <v>uDy8xg2ofrw, Qc4lDXPFGh7</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
   </sheetData>
@@ -5013,30 +5021,30 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="B2" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2018-01-16</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>kHy61PbChXr</v>
+        <v>hmSnCXmLYwt</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="B3" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2018-01-16</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>hmSnCXmLYwt</v>
+        <v>kHy61PbChXr</v>
       </c>
     </row>
   </sheetData>
@@ -5071,7 +5079,7 @@
         <v>RMNCAH</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2020-04-16</v>
+        <v>2021-02-08</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>XRx2x8w50on</v>
@@ -5121,7 +5129,7 @@
         <v>u2K7F4cqtdf</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>visualizations</v>
+        <v>STACKED_COLUMN</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>RMNCAH - FP clients accepting contraceptives for first time by age and sex</v>
@@ -5141,7 +5149,7 @@
         <v>a74ivhos1HV</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>visualizations</v>
+        <v>LINE</v>
       </c>
       <c r="C3" s="5" t="str">
         <v>RMNCAH - FP clients accepting contraceptives for first time - quarterly</v>
@@ -5161,7 +5169,7 @@
         <v>gC7bvSoYIWz</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>visualizations</v>
+        <v>COLUMN</v>
       </c>
       <c r="C4" s="4" t="str">
         <v>RMNCAH - FP method for post-partum patients at discharge after facility delivery - by orgunit 12-monthly</v>
@@ -5181,7 +5189,7 @@
         <v>s1HTt1RsC7N</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>visualizations</v>
+        <v>COLUMN</v>
       </c>
       <c r="C5" s="5" t="str">
         <v xml:space="preserve">RMNCAH - Antenatal care interventions - yearly </v>
@@ -5201,7 +5209,7 @@
         <v>QDsX9SohaCB</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>visualizations</v>
+        <v>COLUMN</v>
       </c>
       <c r="C6" s="4" t="str">
         <v>RMNCAH - Delivery and newborn care interventions - quarterly</v>
@@ -5221,7 +5229,7 @@
         <v>YeAJFrQQU4W</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>visualizations</v>
+        <v>LINE</v>
       </c>
       <c r="C7" s="5" t="str">
         <v>RMNCAH - First antenatal care during first trimester by age and over time</v>
@@ -5241,7 +5249,7 @@
         <v>aLMrowvb44Q</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>visualizations</v>
+        <v>COLUMN</v>
       </c>
       <c r="C8" s="4" t="str">
         <v>RMNCAH - Delivery and newborn care interventions by year</v>
@@ -5261,7 +5269,7 @@
         <v>py5vOPaNck9</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>visualizations</v>
+        <v>PIE</v>
       </c>
       <c r="C9" s="5" t="str">
         <v>RMNCAH - Newborn mortality by cause</v>
@@ -5281,7 +5289,7 @@
         <v>m9IFzMHmRF9</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>visualizations</v>
+        <v>STACKED_COLUMN</v>
       </c>
       <c r="C10" s="4" t="str">
         <v>RMNCAH - Number of stillbirths by type and year</v>
@@ -5301,7 +5309,7 @@
         <v>SXjpUVdtS8c</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>visualizations</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C11" s="5" t="str">
         <v>RMNCAH - Maternal and Perinatal deaths reviewed - yearly</v>
@@ -5321,7 +5329,7 @@
         <v>O2EwlCUHQ25</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>visualizations</v>
+        <v>LINE</v>
       </c>
       <c r="C12" s="4" t="str">
         <v>RMNCAH - Diarrhea treatment for children 0-9 by type, quarterly</v>
@@ -5341,7 +5349,7 @@
         <v>zcQnSrwconF</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>visualizations</v>
+        <v>COLUMN</v>
       </c>
       <c r="C13" s="5" t="str">
         <v>RMNCAH - Children diagnosed with pneumonia by age and org unit, last 12 months</v>
@@ -5361,7 +5369,7 @@
         <v>pXbMZzknPFp</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>visualizations</v>
+        <v>LINE</v>
       </c>
       <c r="C14" s="4" t="str">
         <v>RMNCAH - Pneumonia treatment in children 0-9, by quarter and org unit</v>
@@ -5381,7 +5389,7 @@
         <v>pgB0KOsHovg</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>visualizations</v>
+        <v>PIE</v>
       </c>
       <c r="C15" s="5" t="str">
         <v>RMNCAH - Child mortality by cause 0-4 years - this year</v>
@@ -5401,7 +5409,7 @@
         <v>RJCFvxlOA7t</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>visualizations</v>
+        <v>PIE</v>
       </c>
       <c r="C16" s="4" t="str">
         <v>RMNCAH - Child mortality by cause 5-9 years - this year</v>
@@ -5421,7 +5429,7 @@
         <v>gJeV6BtrYoj</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>visualizations</v>
+        <v>COLUMN</v>
       </c>
       <c r="C17" s="5" t="str">
         <v>RMNCAH - Continuum of Care - yearly</v>
